--- a/Level Design/Level_Design_Book.xlsx
+++ b/Level Design/Level_Design_Book.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Andre\GitHub\DungeonGoop\Level Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F898014-02EB-49C7-857B-009A04981F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997AE1F1-6666-422F-98DD-0824BC6C874A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="450" yWindow="690" windowWidth="27390" windowHeight="13395" xr2:uid="{CA1DF132-283B-4423-BE0F-36DBE9B529A1}"/>
+    <workbookView xWindow="450" yWindow="690" windowWidth="27390" windowHeight="13395" activeTab="2" xr2:uid="{CA1DF132-283B-4423-BE0F-36DBE9B529A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Legend" sheetId="1" r:id="rId1"/>
+    <sheet name="slime_blank" sheetId="6" r:id="rId2"/>
+    <sheet name="remnant_blank" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="41">
   <si>
     <t>w</t>
   </si>
@@ -63,9 +65,6 @@
   </si>
   <si>
     <t>Stair</t>
-  </si>
-  <si>
-    <t>[_]</t>
   </si>
   <si>
     <t>e</t>
@@ -97,12 +96,78 @@
   <si>
     <t>^^^</t>
   </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>[[]]</t>
+  </si>
+  <si>
+    <t>{XX}</t>
+  </si>
+  <si>
+    <t>{     }</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>open door</t>
+  </si>
+  <si>
+    <t>locked door</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>NPC (interact)</t>
+  </si>
+  <si>
+    <t>button (interact)</t>
+  </si>
+  <si>
+    <t>item (interact)</t>
+  </si>
+  <si>
+    <t>sp</t>
+  </si>
+  <si>
+    <t>special object</t>
+  </si>
+  <si>
+    <t>_==_</t>
+  </si>
+  <si>
+    <t>NPC</t>
+  </si>
+  <si>
+    <t>Special</t>
+  </si>
+  <si>
+    <t>tr</t>
+  </si>
+  <si>
+    <t>Trigger</t>
+  </si>
+  <si>
+    <t>Triggered effect</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,8 +175,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,8 +237,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF964B00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -204,49 +317,163 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <numFmt numFmtId="182" formatCode=";;;\ &quot;*/*&quot;"/>
+  <dxfs count="186">
+    <dxf>
+      <numFmt numFmtId="165" formatCode=";;;\ &quot;&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode=";;;&quot;&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="182" formatCode=";;;&quot;[[]]&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode=";;;&quot;Enemy&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dotted">
+          <color auto="1"/>
+        </left>
+        <right style="dotted">
+          <color auto="1"/>
+        </right>
+        <top style="dotted">
+          <color auto="1"/>
+        </top>
+        <bottom style="dotted">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=";;;&quot;^^^&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode=";;;\ &quot;*/*&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
@@ -262,7 +489,197 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="181" formatCode=";;;\ &quot;&quot;"/>
+      <numFmt numFmtId="170" formatCode=";;;\ &quot;Stair&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="180" formatCode=";;;\ &quot;{     }&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF964B00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="181" formatCode=";;;\ &quot;{XX}&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF964B00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="184" formatCode=";;;\ &quot;NPC&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="185" formatCode=";;;\ &quot;_==_&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="183" formatCode=";;;\ &quot;Item&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="189" formatCode=";;;\ &quot;Spec&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <numFmt numFmtId="188" formatCode=";;;\ &quot;TRIG&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <numFmt numFmtId="188" formatCode=";;;\ &quot;TRIG&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode=";;;\ &quot;&quot;"/>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.499984740745262"/>
@@ -278,7 +695,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="180" formatCode=";;;&quot;&quot;"/>
+      <numFmt numFmtId="166" formatCode=";;;&quot;&quot;"/>
       <fill>
         <patternFill>
           <bgColor theme="0"/>
@@ -290,7 +707,1794 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode=";;;&quot;[_]&quot;"/>
+      <numFmt numFmtId="182" formatCode=";;;&quot;[[]]&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode=";;;&quot;Enemy&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dotted">
+          <color auto="1"/>
+        </left>
+        <right style="dotted">
+          <color auto="1"/>
+        </right>
+        <top style="dotted">
+          <color auto="1"/>
+        </top>
+        <bottom style="dotted">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=";;;&quot;^^^&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode=";;;\ &quot;*/*&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=";;;\ &quot;Stair&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="180" formatCode=";;;\ &quot;{     }&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF964B00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="181" formatCode=";;;\ &quot;{XX}&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF964B00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="184" formatCode=";;;\ &quot;NPC&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="185" formatCode=";;;\ &quot;_==_&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="189" formatCode=";;;\ &quot;Spec&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="183" formatCode=";;;\ &quot;Item&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="189" formatCode=";;;\ &quot;Spec&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <numFmt numFmtId="188" formatCode=";;;\ &quot;TRIG&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode=";;;\ &quot;&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode=";;;&quot;&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="182" formatCode=";;;&quot;[[]]&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode=";;;&quot;Enemy&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dotted">
+          <color auto="1"/>
+        </left>
+        <right style="dotted">
+          <color auto="1"/>
+        </right>
+        <top style="dotted">
+          <color auto="1"/>
+        </top>
+        <bottom style="dotted">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=";;;&quot;^^^&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode=";;;\ &quot;*/*&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=";;;\ &quot;Stair&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="180" formatCode=";;;\ &quot;{     }&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF964B00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="181" formatCode=";;;\ &quot;{XX}&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF964B00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="184" formatCode=";;;\ &quot;NPC&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="185" formatCode=";;;\ &quot;_==_&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="183" formatCode=";;;\ &quot;Item&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <numFmt numFmtId="187" formatCode=";;;\ &quot;Trigger&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode=";;;\ &quot;&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode=";;;&quot;&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="182" formatCode=";;;&quot;[[]]&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode=";;;&quot;Enemy&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dotted">
+          <color auto="1"/>
+        </left>
+        <right style="dotted">
+          <color auto="1"/>
+        </right>
+        <top style="dotted">
+          <color auto="1"/>
+        </top>
+        <bottom style="dotted">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=";;;&quot;^^^&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode=";;;\ &quot;*/*&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=";;;\ &quot;Stair&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="180" formatCode=";;;\ &quot;{     }&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF964B00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="181" formatCode=";;;\ &quot;{XX}&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF964B00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="184" formatCode=";;;\ &quot;NPC&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="185" formatCode=";;;\ &quot;_==_&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="186" formatCode=";;;\ &quot;Special&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="183" formatCode=";;;\ &quot;Item&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <numFmt numFmtId="187" formatCode=";;;\ &quot;Trigger&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode=";;;\ &quot;&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode=";;;&quot;&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="182" formatCode=";;;&quot;[[]]&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode=";;;&quot;Enemy&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dotted">
+          <color auto="1"/>
+        </left>
+        <right style="dotted">
+          <color auto="1"/>
+        </right>
+        <top style="dotted">
+          <color auto="1"/>
+        </top>
+        <bottom style="dotted">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=";;;&quot;^^^&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode=";;;\ &quot;*/*&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=";;;\ &quot;Stair&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="180" formatCode=";;;\ &quot;{     }&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF964B00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="181" formatCode=";;;\ &quot;{XX}&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF964B00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="184" formatCode=";;;\ &quot;NPC&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="185" formatCode=";;;\ &quot;_==_&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="186" formatCode=";;;\ &quot;Special&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="183" formatCode=";;;\ &quot;Item&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <numFmt numFmtId="187" formatCode=";;;\ &quot;Trigger&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode=";;;\ &quot;&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode=";;;&quot;&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="182" formatCode=";;;&quot;[[]]&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode=";;;&quot;Enemy&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dotted">
+          <color auto="1"/>
+        </left>
+        <right style="dotted">
+          <color auto="1"/>
+        </right>
+        <top style="dotted">
+          <color auto="1"/>
+        </top>
+        <bottom style="dotted">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=";;;&quot;^^^&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode=";;;\ &quot;*/*&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=";;;\ &quot;Stair&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="180" formatCode=";;;\ &quot;{     }&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF964B00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="181" formatCode=";;;\ &quot;{XX}&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF964B00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="184" formatCode=";;;\ &quot;NPC&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="185" formatCode=";;;\ &quot;_==_&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="186" formatCode=";;;\ &quot;Special&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="183" formatCode=";;;\ &quot;Item&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <numFmt numFmtId="187" formatCode=";;;\ &quot;Trigger&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode=";;;\ &quot;&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode=";;;&quot;&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="182" formatCode=";;;&quot;[[]]&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode=";;;&quot;Enemy&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dotted">
+          <color auto="1"/>
+        </left>
+        <right style="dotted">
+          <color auto="1"/>
+        </right>
+        <top style="dotted">
+          <color auto="1"/>
+        </top>
+        <bottom style="dotted">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=";;;&quot;^^^&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode=";;;\ &quot;*/*&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=";;;\ &quot;Stair&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="180" formatCode=";;;\ &quot;{     }&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF964B00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="181" formatCode=";;;\ &quot;{XX}&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF964B00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="184" formatCode=";;;\ &quot;NPC&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="185" formatCode=";;;\ &quot;_==_&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="186" formatCode=";;;\ &quot;Special&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="183" formatCode=";;;\ &quot;Item&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode=";;;\ &quot;&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode=";;;&quot;&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="182" formatCode=";;;&quot;[[]]&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode=";;;&quot;Enemy&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dotted">
+          <color auto="1"/>
+        </left>
+        <right style="dotted">
+          <color auto="1"/>
+        </right>
+        <top style="dotted">
+          <color auto="1"/>
+        </top>
+        <bottom style="dotted">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=";;;&quot;^^^&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode=";;;\ &quot;*/*&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=";;;\ &quot;Stair&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="180" formatCode=";;;\ &quot;{     }&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF964B00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="181" formatCode=";;;\ &quot;{XX}&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF964B00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="184" formatCode=";;;\ &quot;NPC&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="185" formatCode=";;;\ &quot;_==_&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="186" formatCode=";;;\ &quot;Special&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="183" formatCode=";;;\ &quot;Item&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode=";;;\ &quot;&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode=";;;&quot;&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="182" formatCode=";;;&quot;[[]]&quot;"/>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
@@ -306,7 +2510,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode=";;;&quot;Enemy&quot;"/>
+      <numFmt numFmtId="168" formatCode=";;;&quot;Enemy&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
@@ -330,7 +2534,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode=";;;&quot;^^^&quot;"/>
+      <numFmt numFmtId="169" formatCode=";;;&quot;^^^&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -346,7 +2550,23 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="183" formatCode=";;;\ &quot;Stair&quot;"/>
+      <numFmt numFmtId="164" formatCode=";;;\ &quot;*/*&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=";;;\ &quot;Stair&quot;"/>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
@@ -370,7 +2590,203 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="182" formatCode=";;;\ &quot;*/*&quot;"/>
+      <numFmt numFmtId="180" formatCode=";;;\ &quot;{     }&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF964B00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="181" formatCode=";;;\ &quot;{XX}&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF964B00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="184" formatCode=";;;\ &quot;NPC&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="185" formatCode=";;;\ &quot;_==_&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="186" formatCode=";;;\ &quot;Special&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="183" formatCode=";;;\ &quot;Item&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode=";;;\ &quot;&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode=";;;&quot;&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="182" formatCode=";;;&quot;[[]]&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode=";;;&quot;Enemy&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dotted">
+          <color auto="1"/>
+        </left>
+        <right style="dotted">
+          <color auto="1"/>
+        </right>
+        <top style="dotted">
+          <color auto="1"/>
+        </top>
+        <bottom style="dotted">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=";;;&quot;^^^&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode=";;;\ &quot;*/*&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
@@ -386,7 +2802,143 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="181" formatCode=";;;\ &quot;&quot;"/>
+      <numFmt numFmtId="170" formatCode=";;;\ &quot;Stair&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="180" formatCode=";;;\ &quot;{     }&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF964B00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="181" formatCode=";;;\ &quot;{XX}&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF964B00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="184" formatCode=";;;\ &quot;NPC&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="185" formatCode=";;;\ &quot;_==_&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="186" formatCode=";;;\ &quot;Special&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="183" formatCode=";;;\ &quot;Item&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode=";;;\ &quot;&quot;"/>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.499984740745262"/>
@@ -402,7 +2954,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="180" formatCode=";;;&quot;&quot;"/>
+      <numFmt numFmtId="166" formatCode=";;;&quot;&quot;"/>
       <fill>
         <patternFill>
           <bgColor theme="0"/>
@@ -414,7 +2966,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode=";;;&quot;[_]&quot;"/>
+      <numFmt numFmtId="182" formatCode=";;;&quot;[[]]&quot;"/>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
@@ -430,7 +2982,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode=";;;&quot;Enemy&quot;"/>
+      <numFmt numFmtId="168" formatCode=";;;&quot;Enemy&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
@@ -454,7 +3006,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode=";;;&quot;^^^&quot;"/>
+      <numFmt numFmtId="169" formatCode=";;;&quot;^^^&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -470,7 +3022,207 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="174" formatCode=";;\ &quot;&quot;;"/>
+      <numFmt numFmtId="164" formatCode=";;;\ &quot;*/*&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=";;;\ &quot;Stair&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="180" formatCode=";;;\ &quot;{     }&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF964B00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="181" formatCode=";;;\ &quot;{XX}&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF964B00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="184" formatCode=";;;\ &quot;NPC&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="185" formatCode=";;;\ &quot;_==_&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="186" formatCode=";;;\ &quot;Special&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="183" formatCode=";;;\ &quot;Item&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="183" formatCode=";;;\ &quot;Item&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="186" formatCode=";;;\ &quot;Special&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode=";;;\ &quot;&quot;"/>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.499984740745262"/>
@@ -486,7 +3238,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="175" formatCode=";;&quot;&quot;"/>
+      <numFmt numFmtId="166" formatCode=";;;&quot;&quot;"/>
       <fill>
         <patternFill>
           <bgColor theme="0"/>
@@ -498,7 +3250,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode=";;&quot;[_]&quot;"/>
+      <numFmt numFmtId="182" formatCode=";;;&quot;[[]]&quot;"/>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
@@ -514,7 +3266,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode=";;;&quot;Enemy&quot;"/>
+      <numFmt numFmtId="168" formatCode=";;;&quot;Enemy&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
@@ -538,7 +3290,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode=";;&quot;^^^&quot;;"/>
+      <numFmt numFmtId="169" formatCode=";;;&quot;^^^&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -554,7 +3306,135 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="\ &quot;&quot;"/>
+      <numFmt numFmtId="164" formatCode=";;;\ &quot;*/*&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=";;;\ &quot;Stair&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="180" formatCode=";;;\ &quot;{     }&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF964B00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="181" formatCode=";;;\ &quot;{XX}&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF964B00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="184" formatCode=";;;\ &quot;NPC&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="185" formatCode=";;;\ &quot;_==_&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="186" formatCode=";;;\ &quot;Special&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode=";;;\ &quot;&quot;"/>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.499984740745262"/>
@@ -570,7 +3450,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;&quot;"/>
+      <numFmt numFmtId="166" formatCode=";;;&quot;&quot;"/>
       <fill>
         <patternFill>
           <bgColor theme="0"/>
@@ -582,7 +3462,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;[_]&quot;"/>
+      <numFmt numFmtId="182" formatCode=";;;&quot;[[]]&quot;"/>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
@@ -598,7 +3478,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;Enemy&quot;"/>
+      <numFmt numFmtId="168" formatCode=";;;&quot;Enemy&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
@@ -622,7 +3502,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="&quot;^^^&quot;"/>
+      <numFmt numFmtId="169" formatCode=";;;&quot;^^^&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -638,7 +3518,111 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="\ &quot;&quot;"/>
+      <numFmt numFmtId="164" formatCode=";;;\ &quot;*/*&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=";;;\ &quot;Stair&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="180" formatCode=";;;\ &quot;{     }&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF964B00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="181" formatCode=";;;\ &quot;{XX}&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF964B00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="184" formatCode=";;;\ &quot;NPC&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="185" formatCode=";;;\ &quot;_==_&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode=";;;\ &quot;&quot;"/>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.499984740745262"/>
@@ -654,7 +3638,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;&quot;"/>
+      <numFmt numFmtId="166" formatCode=";;;&quot;&quot;"/>
       <fill>
         <patternFill>
           <bgColor theme="0"/>
@@ -666,7 +3650,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;[_]&quot;"/>
+      <numFmt numFmtId="182" formatCode=";;;&quot;[[]]&quot;"/>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
@@ -682,7 +3666,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;Enemy&quot;"/>
+      <numFmt numFmtId="168" formatCode=";;;&quot;Enemy&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
@@ -706,7 +3690,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="&quot;^^^&quot;"/>
+      <numFmt numFmtId="169" formatCode=";;;&quot;^^^&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -722,29 +3706,116 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
+      <numFmt numFmtId="164" formatCode=";;;\ &quot;*/*&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=";;;\ &quot;Stair&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="180" formatCode=";;;\ &quot;{     }&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF964B00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="181" formatCode=";;;\ &quot;{XX}&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF964B00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="184" formatCode=";;;\ &quot;NPC&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="185" formatCode=";;;\ &quot;_==_&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
         <vertical/>
         <horizontal/>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF964B00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1073,15 +4144,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6807871-FC9A-4F10-876C-8CA0C6A51D84}">
-  <dimension ref="A1:AD14"/>
+  <dimension ref="A1:AD28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE9" sqref="AE9"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="AD21" sqref="AD20:AD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="6.7109375" style="1"/>
+    <col min="1" max="3" width="6.7109375" style="1"/>
+    <col min="4" max="4" width="18.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="2"/>
+    <col min="6" max="16384" width="6.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1091,18 +4165,22 @@
     </row>
     <row r="2" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1" t="s">
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="N3" s="1" t="s">
@@ -1134,21 +4212,25 @@
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="D4" s="4" t="s">
+      <c r="B4" s="4"/>
+      <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>13</v>
+      <c r="G4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>0</v>
@@ -1167,23 +4249,20 @@
       </c>
     </row>
     <row r="5" spans="1:30" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="4"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="3"/>
       <c r="T5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>0</v>
@@ -1193,32 +4272,33 @@
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="G6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
       <c r="T6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y6" s="1" t="s">
         <v>0</v>
@@ -1228,16 +4308,6 @@
       </c>
     </row>
     <row r="7" spans="1:30" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="4"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="M7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="T7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1249,17 +4319,14 @@
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="B8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="N8" s="1" t="s">
-        <v>16</v>
+      <c r="G8" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>0</v>
@@ -1269,9 +4336,7 @@
       </c>
     </row>
     <row r="9" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="M9" s="15"/>
       <c r="T9" s="1" t="s">
         <v>0</v>
       </c>
@@ -1293,17 +4358,17 @@
     </row>
     <row r="10" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="G10" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="T10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1312,8 +4377,6 @@
       </c>
     </row>
     <row r="11" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
       <c r="T11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1327,21 +4390,31 @@
         <v>0</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="G12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="T12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1352,13 +4425,22 @@
         <v>6</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="T13" s="1" t="s">
         <v>0</v>
       </c>
@@ -1366,19 +4448,1105 @@
         <v>0</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="G14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F1:ZZ1048576">
+    <cfRule type="containsText" dxfId="41" priority="4" operator="containsText" text="i">
+      <formula>NOT(ISERROR(SEARCH("i",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="3" operator="containsText" text="sp">
+      <formula>NOT(ISERROR(SEARCH("sp",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="16" operator="containsText" text="b">
+      <formula>NOT(ISERROR(SEARCH("b",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="39" priority="17" operator="containsText" text="n">
+      <formula>NOT(ISERROR(SEARCH("n",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="18" operator="containsText" text="l">
+      <formula>NOT(ISERROR(SEARCH("l",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="19" operator="containsText" text="d">
+      <formula>NOT(ISERROR(SEARCH("d",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="20" operator="containsText" text="s">
+      <formula>NOT(ISERROR(SEARCH("s",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="35" priority="21" operator="containsText" text="o">
+      <formula>NOT(ISERROR(SEARCH("o",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="22" operator="containsText" text="t">
+      <formula>NOT(ISERROR(SEARCH("t",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="23" operator="containsText" text="e">
+      <formula>NOT(ISERROR(SEARCH("e",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="24" operator="containsText" text="p">
+      <formula>NOT(ISERROR(SEARCH("p",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="25" operator="containsText" text="f">
+      <formula>NOT(ISERROR(SEARCH("f",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="26" operator="containsText" text="w">
+      <formula>NOT(ISERROR(SEARCH("w",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="2" operator="containsText" text="tr">
+      <formula>NOT(ISERROR(SEARCH("tr",F1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71703A0C-631C-4E5E-B6AB-1F6B75B02AA7}">
+  <dimension ref="A1:AD28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="AD20" sqref="AD20:AD21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="6.7109375" style="1"/>
+    <col min="4" max="4" width="18.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="2"/>
+    <col min="6" max="16384" width="6.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="T5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="T6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="T7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M9" s="15"/>
+      <c r="T9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>18</v>
       </c>
+      <c r="D12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="D14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F1:ZZ1048576">
+    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="tr">
+      <formula>NOT(ISERROR(SEARCH("tr",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="2" operator="containsText" text="sp">
+      <formula>NOT(ISERROR(SEARCH("sp",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="3" operator="containsText" text="i">
+      <formula>NOT(ISERROR(SEARCH("i",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="4" operator="containsText" text="b">
+      <formula>NOT(ISERROR(SEARCH("b",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="5" operator="containsText" text="n">
+      <formula>NOT(ISERROR(SEARCH("n",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="23" priority="6" operator="containsText" text="l">
+      <formula>NOT(ISERROR(SEARCH("l",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="7" operator="containsText" text="d">
+      <formula>NOT(ISERROR(SEARCH("d",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="8" operator="containsText" text="s">
+      <formula>NOT(ISERROR(SEARCH("s",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="9" operator="containsText" text="o">
+      <formula>NOT(ISERROR(SEARCH("o",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="10" operator="containsText" text="t">
+      <formula>NOT(ISERROR(SEARCH("t",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="11" operator="containsText" text="e">
+      <formula>NOT(ISERROR(SEARCH("e",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="12" operator="containsText" text="p">
+      <formula>NOT(ISERROR(SEARCH("p",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="13" operator="containsText" text="f">
+      <formula>NOT(ISERROR(SEARCH("f",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="14" operator="containsText" text="w">
+      <formula>NOT(ISERROR(SEARCH("w",F1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C0ACCB-6970-40A9-A1B0-FD91C954B37E}">
+  <dimension ref="A1:AD28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="AD20" sqref="AD20:AD21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="6.7109375" style="1"/>
+    <col min="4" max="4" width="18.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="2"/>
+    <col min="6" max="16384" width="6.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="T5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="T6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="T7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M9" s="15"/>
+      <c r="T9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>17</v>
       </c>
+      <c r="D14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="T14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1398,28 +5566,187 @@
         <v>0</v>
       </c>
     </row>
+    <row r="15" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="E1:ZZ1048576">
-    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="t">
-      <formula>NOT(ISERROR(SEARCH("t",E1)))</formula>
+  <conditionalFormatting sqref="F1:ZZ1048576">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="tr">
+      <formula>NOT(ISERROR(SEARCH("tr",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="e">
-      <formula>NOT(ISERROR(SEARCH("e",E1)))</formula>
+    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="sp">
+      <formula>NOT(ISERROR(SEARCH("sp",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="p">
-      <formula>NOT(ISERROR(SEARCH("p",E1)))</formula>
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="i">
+      <formula>NOT(ISERROR(SEARCH("i",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="f">
-      <formula>NOT(ISERROR(SEARCH("f",E1)))</formula>
+    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="b">
+      <formula>NOT(ISERROR(SEARCH("b",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="w">
-      <formula>NOT(ISERROR(SEARCH("w",E1)))</formula>
+    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="n">
+      <formula>NOT(ISERROR(SEARCH("n",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="o">
-      <formula>NOT(ISERROR(SEARCH("o",E1)))</formula>
+    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="l">
+      <formula>NOT(ISERROR(SEARCH("l",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="s">
-      <formula>NOT(ISERROR(SEARCH("s",E1)))</formula>
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="d">
+      <formula>NOT(ISERROR(SEARCH("d",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="s">
+      <formula>NOT(ISERROR(SEARCH("s",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="o">
+      <formula>NOT(ISERROR(SEARCH("o",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="10" operator="containsText" text="t">
+      <formula>NOT(ISERROR(SEARCH("t",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="11" operator="containsText" text="e">
+      <formula>NOT(ISERROR(SEARCH("e",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="12" operator="containsText" text="p">
+      <formula>NOT(ISERROR(SEARCH("p",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="13" operator="containsText" text="f">
+      <formula>NOT(ISERROR(SEARCH("f",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="14" operator="containsText" text="w">
+      <formula>NOT(ISERROR(SEARCH("w",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Level Design/Level_Design_Book.xlsx
+++ b/Level Design/Level_Design_Book.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Andre\GitHub\DungeonGoop\Level Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997AE1F1-6666-422F-98DD-0824BC6C874A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E22A7AE-91CB-4C70-9DC1-B79413618D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="450" yWindow="690" windowWidth="27390" windowHeight="13395" activeTab="2" xr2:uid="{CA1DF132-283B-4423-BE0F-36DBE9B529A1}"/>
+    <workbookView xWindow="450" yWindow="690" windowWidth="27390" windowHeight="13395" activeTab="3" xr2:uid="{CA1DF132-283B-4423-BE0F-36DBE9B529A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Legend" sheetId="1" r:id="rId1"/>
     <sheet name="slime_blank" sheetId="6" r:id="rId2"/>
     <sheet name="remnant_blank" sheetId="7" r:id="rId3"/>
+    <sheet name="slime_floor1" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="47">
   <si>
     <t>w</t>
   </si>
@@ -118,9 +119,6 @@
     <t>Item</t>
   </si>
   <si>
-    <t>open door</t>
-  </si>
-  <si>
     <t>locked door</t>
   </si>
   <si>
@@ -162,6 +160,27 @@
   <si>
     <t>Triggered effect</t>
   </si>
+  <si>
+    <t>passable door</t>
+  </si>
+  <si>
+    <t>ww</t>
+  </si>
+  <si>
+    <t>f1</t>
+  </si>
+  <si>
+    <t>f2</t>
+  </si>
+  <si>
+    <t>floor raised (1)</t>
+  </si>
+  <si>
+    <t>floor raised (2)</t>
+  </si>
+  <si>
+    <t>ld</t>
+  </si>
 </sst>
 </file>
 
@@ -194,7 +213,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,12 +241,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -264,6 +277,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,24 +367,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -365,31 +387,46 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="186">
-    <dxf>
-      <numFmt numFmtId="165" formatCode=";;;\ &quot;&quot;"/>
+  <dxfs count="198">
+    <dxf>
+      <numFmt numFmtId="164" formatCode=";;;\ &quot;&quot;"/>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.499984740745262"/>
@@ -405,7 +442,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode=";;;&quot;&quot;"/>
+      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
       <fill>
         <patternFill>
           <bgColor theme="0"/>
@@ -417,23 +454,23 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="182" formatCode=";;;&quot;[[]]&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode=";;;&quot;Enemy&quot;"/>
+      <numFmt numFmtId="166" formatCode=";;;&quot;[[]]&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode=";;;&quot;Enemy&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
@@ -457,7 +494,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode=";;;&quot;^^^&quot;"/>
+      <numFmt numFmtId="168" formatCode=";;;&quot;^^^&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -473,7 +510,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode=";;;\ &quot;*/*&quot;"/>
+      <numFmt numFmtId="169" formatCode=";;;\ &quot;*/*&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
@@ -492,7 +529,7 @@
       <numFmt numFmtId="170" formatCode=";;;\ &quot;Stair&quot;"/>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
       <border>
@@ -513,7 +550,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="180" formatCode=";;;\ &quot;{     }&quot;"/>
+      <numFmt numFmtId="171" formatCode=";;;\ &quot;{     }&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF964B00"/>
@@ -529,7 +566,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="181" formatCode=";;;\ &quot;{XX}&quot;"/>
+      <numFmt numFmtId="172" formatCode=";;;\ &quot;{XX}&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF964B00"/>
@@ -545,7 +582,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="184" formatCode=";;;\ &quot;NPC&quot;"/>
+      <numFmt numFmtId="173" formatCode=";;;\ &quot;NPC&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
@@ -561,7 +598,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="185" formatCode=";;;\ &quot;_==_&quot;"/>
+      <numFmt numFmtId="174" formatCode=";;;\ &quot;_==_&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
@@ -577,7 +614,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="183" formatCode=";;;\ &quot;Item&quot;"/>
+      <numFmt numFmtId="175" formatCode=";;;\ &quot;Item&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
@@ -601,7 +638,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="189" formatCode=";;;\ &quot;Spec&quot;"/>
+      <numFmt numFmtId="184" formatCode=";;;\ &quot;SPEC&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF7030A0"/>
@@ -628,10 +665,270 @@
       <font>
         <color theme="0"/>
       </font>
-      <numFmt numFmtId="188" formatCode=";;;\ &quot;TRIG&quot;"/>
+      <numFmt numFmtId="177" formatCode=";;;\ &quot;TRIG&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode=";;;\ &quot;&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode=";;;&quot;[[]]&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode=";;;&quot;Enemy&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dotted">
+          <color auto="1"/>
+        </left>
+        <right style="dotted">
+          <color auto="1"/>
+        </right>
+        <top style="dotted">
+          <color auto="1"/>
+        </top>
+        <bottom style="dotted">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode=";;;&quot;^^^&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=";;;\ &quot;*/*&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=";;;\ &quot;Stair&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=";;;\ &quot;{     }&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF964B00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode=";;;\ &quot;{XX}&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF964B00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="173" formatCode=";;;\ &quot;NPC&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="174" formatCode=";;;\ &quot;_==_&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="175" formatCode=";;;\ &quot;Item&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="184" formatCode=";;;\ &quot;SPEC&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
         </patternFill>
       </fill>
       <border>
@@ -655,7 +952,7 @@
       <font>
         <color theme="0"/>
       </font>
-      <numFmt numFmtId="188" formatCode=";;;\ &quot;TRIG&quot;"/>
+      <numFmt numFmtId="177" formatCode=";;;\ &quot;TRIG&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF002060"/>
@@ -679,7 +976,31 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode=";;;\ &quot;&quot;"/>
+      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode=";;;\ &quot;&quot;"/>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.499984740745262"/>
@@ -695,7 +1016,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode=";;;&quot;&quot;"/>
+      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
       <fill>
         <patternFill>
           <bgColor theme="0"/>
@@ -707,7 +1028,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="182" formatCode=";;;&quot;[[]]&quot;"/>
+      <numFmt numFmtId="166" formatCode=";;;&quot;[[]]&quot;"/>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.14996795556505021"/>
@@ -723,7 +1044,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode=";;;&quot;Enemy&quot;"/>
+      <numFmt numFmtId="167" formatCode=";;;&quot;Enemy&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
@@ -747,7 +1068,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode=";;;&quot;^^^&quot;"/>
+      <numFmt numFmtId="168" formatCode=";;;&quot;^^^&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -763,7 +1084,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode=";;;\ &quot;*/*&quot;"/>
+      <numFmt numFmtId="169" formatCode=";;;\ &quot;*/*&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
@@ -803,7 +1124,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="180" formatCode=";;;\ &quot;{     }&quot;"/>
+      <numFmt numFmtId="171" formatCode=";;;\ &quot;{     }&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF964B00"/>
@@ -819,7 +1140,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="181" formatCode=";;;\ &quot;{XX}&quot;"/>
+      <numFmt numFmtId="172" formatCode=";;;\ &quot;{XX}&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF964B00"/>
@@ -835,7 +1156,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="184" formatCode=";;;\ &quot;NPC&quot;"/>
+      <numFmt numFmtId="173" formatCode=";;;\ &quot;NPC&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
@@ -851,7 +1172,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="185" formatCode=";;;\ &quot;_==_&quot;"/>
+      <numFmt numFmtId="174" formatCode=";;;\ &quot;_==_&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
@@ -867,10 +1188,10 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="189" formatCode=";;;\ &quot;Spec&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
+      <numFmt numFmtId="175" formatCode=";;;\ &quot;Item&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
       <border>
@@ -891,31 +1212,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="183" formatCode=";;;\ &quot;Item&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDot">
-          <color auto="1"/>
-        </left>
-        <right style="dashDot">
-          <color auto="1"/>
-        </right>
-        <top style="dashDot">
-          <color auto="1"/>
-        </top>
-        <bottom style="dashDot">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="189" formatCode=";;;\ &quot;Spec&quot;"/>
+      <numFmt numFmtId="176" formatCode=";;;\ &quot;Spec&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF7030A0"/>
@@ -942,7 +1239,7 @@
       <font>
         <color theme="0"/>
       </font>
-      <numFmt numFmtId="188" formatCode=";;;\ &quot;TRIG&quot;"/>
+      <numFmt numFmtId="177" formatCode=";;;\ &quot;TRIG&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF002060"/>
@@ -966,7 +1263,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode=";;;\ &quot;&quot;"/>
+      <numFmt numFmtId="164" formatCode=";;;\ &quot;&quot;"/>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.499984740745262"/>
@@ -982,7 +1279,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode=";;;&quot;&quot;"/>
+      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
       <fill>
         <patternFill>
           <bgColor theme="0"/>
@@ -994,23 +1291,23 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="182" formatCode=";;;&quot;[[]]&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode=";;;&quot;Enemy&quot;"/>
+      <numFmt numFmtId="166" formatCode=";;;&quot;[[]]&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode=";;;&quot;Enemy&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
@@ -1034,7 +1331,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode=";;;&quot;^^^&quot;"/>
+      <numFmt numFmtId="168" formatCode=";;;&quot;^^^&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -1050,7 +1347,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode=";;;\ &quot;*/*&quot;"/>
+      <numFmt numFmtId="169" formatCode=";;;\ &quot;*/*&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
@@ -1069,7 +1366,7 @@
       <numFmt numFmtId="170" formatCode=";;;\ &quot;Stair&quot;"/>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
       <border>
@@ -1090,7 +1387,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="180" formatCode=";;;\ &quot;{     }&quot;"/>
+      <numFmt numFmtId="171" formatCode=";;;\ &quot;{     }&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF964B00"/>
@@ -1106,7 +1403,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="181" formatCode=";;;\ &quot;{XX}&quot;"/>
+      <numFmt numFmtId="172" formatCode=";;;\ &quot;{XX}&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF964B00"/>
@@ -1122,7 +1419,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="184" formatCode=";;;\ &quot;NPC&quot;"/>
+      <numFmt numFmtId="173" formatCode=";;;\ &quot;NPC&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
@@ -1138,7 +1435,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="185" formatCode=";;;\ &quot;_==_&quot;"/>
+      <numFmt numFmtId="174" formatCode=";;;\ &quot;_==_&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
@@ -1154,10 +1451,34 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="183" formatCode=";;;\ &quot;Item&quot;"/>
+      <numFmt numFmtId="175" formatCode=";;;\ &quot;Item&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="184" formatCode=";;;\ &quot;SPEC&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
         </patternFill>
       </fill>
       <border>
@@ -1181,7 +1502,7 @@
       <font>
         <color theme="0"/>
       </font>
-      <numFmt numFmtId="187" formatCode=";;;\ &quot;Trigger&quot;"/>
+      <numFmt numFmtId="177" formatCode=";;;\ &quot;TRIG&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF002060"/>
@@ -1205,7 +1526,31 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode=";;;\ &quot;&quot;"/>
+      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode=";;;\ &quot;&quot;"/>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.499984740745262"/>
@@ -1221,7 +1566,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode=";;;&quot;&quot;"/>
+      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
       <fill>
         <patternFill>
           <bgColor theme="0"/>
@@ -1233,23 +1578,23 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="182" formatCode=";;;&quot;[[]]&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode=";;;&quot;Enemy&quot;"/>
+      <numFmt numFmtId="166" formatCode=";;;&quot;[[]]&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode=";;;&quot;Enemy&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
@@ -1273,7 +1618,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode=";;;&quot;^^^&quot;"/>
+      <numFmt numFmtId="168" formatCode=";;;&quot;^^^&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -1289,7 +1634,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode=";;;\ &quot;*/*&quot;"/>
+      <numFmt numFmtId="169" formatCode=";;;\ &quot;*/*&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
@@ -1308,7 +1653,7 @@
       <numFmt numFmtId="170" formatCode=";;;\ &quot;Stair&quot;"/>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
       <border>
@@ -1329,7 +1674,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="180" formatCode=";;;\ &quot;{     }&quot;"/>
+      <numFmt numFmtId="171" formatCode=";;;\ &quot;{     }&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF964B00"/>
@@ -1345,7 +1690,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="181" formatCode=";;;\ &quot;{XX}&quot;"/>
+      <numFmt numFmtId="172" formatCode=";;;\ &quot;{XX}&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF964B00"/>
@@ -1361,7 +1706,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="184" formatCode=";;;\ &quot;NPC&quot;"/>
+      <numFmt numFmtId="173" formatCode=";;;\ &quot;NPC&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
@@ -1377,7 +1722,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="185" formatCode=";;;\ &quot;_==_&quot;"/>
+      <numFmt numFmtId="174" formatCode=";;;\ &quot;_==_&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
@@ -1393,10 +1738,10 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="186" formatCode=";;;\ &quot;Special&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
+      <numFmt numFmtId="175" formatCode=";;;\ &quot;Item&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
       <border>
@@ -1417,10 +1762,10 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="183" formatCode=";;;\ &quot;Item&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
+      <numFmt numFmtId="184" formatCode=";;;\ &quot;SPEC&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
         </patternFill>
       </fill>
       <border>
@@ -1444,7 +1789,7 @@
       <font>
         <color theme="0"/>
       </font>
-      <numFmt numFmtId="187" formatCode=";;;\ &quot;Trigger&quot;"/>
+      <numFmt numFmtId="177" formatCode=";;;\ &quot;TRIG&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF002060"/>
@@ -1468,7 +1813,31 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode=";;;\ &quot;&quot;"/>
+      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode=";;;\ &quot;&quot;"/>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.499984740745262"/>
@@ -1484,7 +1853,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode=";;;&quot;&quot;"/>
+      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
       <fill>
         <patternFill>
           <bgColor theme="0"/>
@@ -1496,7 +1865,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="182" formatCode=";;;&quot;[[]]&quot;"/>
+      <numFmt numFmtId="166" formatCode=";;;&quot;[[]]&quot;"/>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.14996795556505021"/>
@@ -1512,7 +1881,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode=";;;&quot;Enemy&quot;"/>
+      <numFmt numFmtId="167" formatCode=";;;&quot;Enemy&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
@@ -1536,7 +1905,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode=";;;&quot;^^^&quot;"/>
+      <numFmt numFmtId="168" formatCode=";;;&quot;^^^&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -1552,7 +1921,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode=";;;\ &quot;*/*&quot;"/>
+      <numFmt numFmtId="169" formatCode=";;;\ &quot;*/*&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
@@ -1592,7 +1961,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="180" formatCode=";;;\ &quot;{     }&quot;"/>
+      <numFmt numFmtId="171" formatCode=";;;\ &quot;{     }&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF964B00"/>
@@ -1608,7 +1977,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="181" formatCode=";;;\ &quot;{XX}&quot;"/>
+      <numFmt numFmtId="172" formatCode=";;;\ &quot;{XX}&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF964B00"/>
@@ -1624,7 +1993,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="184" formatCode=";;;\ &quot;NPC&quot;"/>
+      <numFmt numFmtId="173" formatCode=";;;\ &quot;NPC&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
@@ -1640,7 +2009,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="185" formatCode=";;;\ &quot;_==_&quot;"/>
+      <numFmt numFmtId="174" formatCode=";;;\ &quot;_==_&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
@@ -1656,10 +2025,10 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="186" formatCode=";;;\ &quot;Special&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
+      <numFmt numFmtId="175" formatCode=";;;\ &quot;Item&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
       <border>
@@ -1680,10 +2049,10 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="183" formatCode=";;;\ &quot;Item&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
+      <numFmt numFmtId="176" formatCode=";;;\ &quot;Spec&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
         </patternFill>
       </fill>
       <border>
@@ -1707,7 +2076,7 @@
       <font>
         <color theme="0"/>
       </font>
-      <numFmt numFmtId="187" formatCode=";;;\ &quot;Trigger&quot;"/>
+      <numFmt numFmtId="177" formatCode=";;;\ &quot;TRIG&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF002060"/>
@@ -1731,7 +2100,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode=";;;\ &quot;&quot;"/>
+      <numFmt numFmtId="164" formatCode=";;;\ &quot;&quot;"/>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.499984740745262"/>
@@ -1747,7 +2116,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode=";;;&quot;&quot;"/>
+      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
       <fill>
         <patternFill>
           <bgColor theme="0"/>
@@ -1759,23 +2128,23 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="182" formatCode=";;;&quot;[[]]&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode=";;;&quot;Enemy&quot;"/>
+      <numFmt numFmtId="166" formatCode=";;;&quot;[[]]&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode=";;;&quot;Enemy&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
@@ -1799,7 +2168,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode=";;;&quot;^^^&quot;"/>
+      <numFmt numFmtId="168" formatCode=";;;&quot;^^^&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -1815,7 +2184,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode=";;;\ &quot;*/*&quot;"/>
+      <numFmt numFmtId="169" formatCode=";;;\ &quot;*/*&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
@@ -1834,7 +2203,7 @@
       <numFmt numFmtId="170" formatCode=";;;\ &quot;Stair&quot;"/>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
       <border>
@@ -1855,7 +2224,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="180" formatCode=";;;\ &quot;{     }&quot;"/>
+      <numFmt numFmtId="171" formatCode=";;;\ &quot;{     }&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF964B00"/>
@@ -1871,7 +2240,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="181" formatCode=";;;\ &quot;{XX}&quot;"/>
+      <numFmt numFmtId="172" formatCode=";;;\ &quot;{XX}&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF964B00"/>
@@ -1887,7 +2256,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="184" formatCode=";;;\ &quot;NPC&quot;"/>
+      <numFmt numFmtId="173" formatCode=";;;\ &quot;NPC&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
@@ -1903,7 +2272,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="185" formatCode=";;;\ &quot;_==_&quot;"/>
+      <numFmt numFmtId="174" formatCode=";;;\ &quot;_==_&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
@@ -1919,10 +2288,10 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="186" formatCode=";;;\ &quot;Special&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
+      <numFmt numFmtId="175" formatCode=";;;\ &quot;Item&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
       <border>
@@ -1943,10 +2312,10 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="183" formatCode=";;;\ &quot;Item&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
+      <numFmt numFmtId="184" formatCode=";;;\ &quot;SPEC&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
         </patternFill>
       </fill>
       <border>
@@ -1970,7 +2339,7 @@
       <font>
         <color theme="0"/>
       </font>
-      <numFmt numFmtId="187" formatCode=";;;\ &quot;Trigger&quot;"/>
+      <numFmt numFmtId="177" formatCode=";;;\ &quot;TRIG&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF002060"/>
@@ -1994,7 +2363,31 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode=";;;\ &quot;&quot;"/>
+      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode=";;;\ &quot;&quot;"/>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.499984740745262"/>
@@ -2010,7 +2403,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode=";;;&quot;&quot;"/>
+      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
       <fill>
         <patternFill>
           <bgColor theme="0"/>
@@ -2022,23 +2415,23 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="182" formatCode=";;;&quot;[[]]&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode=";;;&quot;Enemy&quot;"/>
+      <numFmt numFmtId="166" formatCode=";;;&quot;[[]]&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode=";;;&quot;Enemy&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
@@ -2062,7 +2455,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode=";;;&quot;^^^&quot;"/>
+      <numFmt numFmtId="168" formatCode=";;;&quot;^^^&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -2078,7 +2471,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode=";;;\ &quot;*/*&quot;"/>
+      <numFmt numFmtId="169" formatCode=";;;\ &quot;*/*&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
@@ -2097,7 +2490,7 @@
       <numFmt numFmtId="170" formatCode=";;;\ &quot;Stair&quot;"/>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
       <border>
@@ -2118,7 +2511,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="180" formatCode=";;;\ &quot;{     }&quot;"/>
+      <numFmt numFmtId="171" formatCode=";;;\ &quot;{     }&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF964B00"/>
@@ -2134,7 +2527,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="181" formatCode=";;;\ &quot;{XX}&quot;"/>
+      <numFmt numFmtId="172" formatCode=";;;\ &quot;{XX}&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF964B00"/>
@@ -2150,7 +2543,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="184" formatCode=";;;\ &quot;NPC&quot;"/>
+      <numFmt numFmtId="173" formatCode=";;;\ &quot;NPC&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
@@ -2166,7 +2559,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="185" formatCode=";;;\ &quot;_==_&quot;"/>
+      <numFmt numFmtId="174" formatCode=";;;\ &quot;_==_&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
@@ -2182,10 +2575,10 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="186" formatCode=";;;\ &quot;Special&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
+      <numFmt numFmtId="175" formatCode=";;;\ &quot;Item&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
       <border>
@@ -2206,10 +2599,10 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="183" formatCode=";;;\ &quot;Item&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
+      <numFmt numFmtId="184" formatCode=";;;\ &quot;SPEC&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
         </patternFill>
       </fill>
       <border>
@@ -2230,7 +2623,58 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode=";;;\ &quot;&quot;"/>
+      <font>
+        <color theme="0"/>
+      </font>
+      <numFmt numFmtId="177" formatCode=";;;\ &quot;TRIG&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode=";;;\ &quot;&quot;"/>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.499984740745262"/>
@@ -2246,7 +2690,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode=";;;&quot;&quot;"/>
+      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
       <fill>
         <patternFill>
           <bgColor theme="0"/>
@@ -2258,7 +2702,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="182" formatCode=";;;&quot;[[]]&quot;"/>
+      <numFmt numFmtId="166" formatCode=";;;&quot;[[]]&quot;"/>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.14996795556505021"/>
@@ -2274,7 +2718,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode=";;;&quot;Enemy&quot;"/>
+      <numFmt numFmtId="167" formatCode=";;;&quot;Enemy&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
@@ -2298,7 +2742,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode=";;;&quot;^^^&quot;"/>
+      <numFmt numFmtId="168" formatCode=";;;&quot;^^^&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -2314,7 +2758,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode=";;;\ &quot;*/*&quot;"/>
+      <numFmt numFmtId="169" formatCode=";;;\ &quot;*/*&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
@@ -2354,7 +2798,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="180" formatCode=";;;\ &quot;{     }&quot;"/>
+      <numFmt numFmtId="171" formatCode=";;;\ &quot;{     }&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF964B00"/>
@@ -2370,7 +2814,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="181" formatCode=";;;\ &quot;{XX}&quot;"/>
+      <numFmt numFmtId="172" formatCode=";;;\ &quot;{XX}&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF964B00"/>
@@ -2386,7 +2830,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="184" formatCode=";;;\ &quot;NPC&quot;"/>
+      <numFmt numFmtId="173" formatCode=";;;\ &quot;NPC&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
@@ -2402,7 +2846,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="185" formatCode=";;;\ &quot;_==_&quot;"/>
+      <numFmt numFmtId="174" formatCode=";;;\ &quot;_==_&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
@@ -2418,10 +2862,10 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="186" formatCode=";;;\ &quot;Special&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
+      <numFmt numFmtId="175" formatCode=";;;\ &quot;Item&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
       <border>
@@ -2442,10 +2886,10 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="183" formatCode=";;;\ &quot;Item&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
+      <numFmt numFmtId="176" formatCode=";;;\ &quot;Spec&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
         </patternFill>
       </fill>
       <border>
@@ -2466,7 +2910,34 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode=";;;\ &quot;&quot;"/>
+      <font>
+        <color theme="0"/>
+      </font>
+      <numFmt numFmtId="177" formatCode=";;;\ &quot;TRIG&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode=";;;\ &quot;&quot;"/>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.499984740745262"/>
@@ -2482,7 +2953,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode=";;;&quot;&quot;"/>
+      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
       <fill>
         <patternFill>
           <bgColor theme="0"/>
@@ -2494,23 +2965,23 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="182" formatCode=";;;&quot;[[]]&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode=";;;&quot;Enemy&quot;"/>
+      <numFmt numFmtId="166" formatCode=";;;&quot;[[]]&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode=";;;&quot;Enemy&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
@@ -2534,7 +3005,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode=";;;&quot;^^^&quot;"/>
+      <numFmt numFmtId="168" formatCode=";;;&quot;^^^&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -2550,7 +3021,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode=";;;\ &quot;*/*&quot;"/>
+      <numFmt numFmtId="169" formatCode=";;;\ &quot;*/*&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
@@ -2590,7 +3061,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="180" formatCode=";;;\ &quot;{     }&quot;"/>
+      <numFmt numFmtId="171" formatCode=";;;\ &quot;{     }&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF964B00"/>
@@ -2606,7 +3077,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="181" formatCode=";;;\ &quot;{XX}&quot;"/>
+      <numFmt numFmtId="172" formatCode=";;;\ &quot;{XX}&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF964B00"/>
@@ -2622,7 +3093,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="184" formatCode=";;;\ &quot;NPC&quot;"/>
+      <numFmt numFmtId="173" formatCode=";;;\ &quot;NPC&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
@@ -2638,7 +3109,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="185" formatCode=";;;\ &quot;_==_&quot;"/>
+      <numFmt numFmtId="174" formatCode=";;;\ &quot;_==_&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
@@ -2654,10 +3125,10 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="186" formatCode=";;;\ &quot;Special&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
+      <numFmt numFmtId="175" formatCode=";;;\ &quot;Item&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
       <border>
@@ -2678,10 +3149,10 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="183" formatCode=";;;\ &quot;Item&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
+      <numFmt numFmtId="176" formatCode=";;;\ &quot;Spec&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
         </patternFill>
       </fill>
       <border>
@@ -2702,7 +3173,82 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode=";;;\ &quot;&quot;"/>
+      <font>
+        <color theme="0"/>
+      </font>
+      <numFmt numFmtId="177" formatCode=";;;\ &quot;TRIG&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="184" formatCode=";;;\ &quot;SPEC&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode=";;;\ &quot;&quot;"/>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.499984740745262"/>
@@ -2718,7 +3264,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode=";;;&quot;&quot;"/>
+      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
       <fill>
         <patternFill>
           <bgColor theme="0"/>
@@ -2730,23 +3276,23 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="182" formatCode=";;;&quot;[[]]&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode=";;;&quot;Enemy&quot;"/>
+      <numFmt numFmtId="166" formatCode=";;;&quot;[[]]&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode=";;;&quot;Enemy&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
@@ -2770,7 +3316,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode=";;;&quot;^^^&quot;"/>
+      <numFmt numFmtId="168" formatCode=";;;&quot;^^^&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -2786,7 +3332,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode=";;;\ &quot;*/*&quot;"/>
+      <numFmt numFmtId="169" formatCode=";;;\ &quot;*/*&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
@@ -2826,7 +3372,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="180" formatCode=";;;\ &quot;{     }&quot;"/>
+      <numFmt numFmtId="171" formatCode=";;;\ &quot;{     }&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF964B00"/>
@@ -2842,7 +3388,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="181" formatCode=";;;\ &quot;{XX}&quot;"/>
+      <numFmt numFmtId="172" formatCode=";;;\ &quot;{XX}&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF964B00"/>
@@ -2858,7 +3404,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="184" formatCode=";;;\ &quot;NPC&quot;"/>
+      <numFmt numFmtId="173" formatCode=";;;\ &quot;NPC&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
@@ -2874,7 +3420,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="185" formatCode=";;;\ &quot;_==_&quot;"/>
+      <numFmt numFmtId="174" formatCode=";;;\ &quot;_==_&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
@@ -2890,10 +3436,10 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="186" formatCode=";;;\ &quot;Special&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
+      <numFmt numFmtId="175" formatCode=";;;\ &quot;Item&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
       <border>
@@ -2914,10 +3460,13 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="183" formatCode=";;;\ &quot;Item&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
+      <font>
+        <color theme="0"/>
+      </font>
+      <numFmt numFmtId="177" formatCode=";;;\ &quot;TRIG&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
         </patternFill>
       </fill>
       <border>
@@ -2938,7 +3487,31 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode=";;;\ &quot;&quot;"/>
+      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode=";;;\ &quot;&quot;"/>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.499984740745262"/>
@@ -2954,7 +3527,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode=";;;&quot;&quot;"/>
+      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
       <fill>
         <patternFill>
           <bgColor theme="0"/>
@@ -2966,23 +3539,23 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="182" formatCode=";;;&quot;[[]]&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode=";;;&quot;Enemy&quot;"/>
+      <numFmt numFmtId="166" formatCode=";;;&quot;[[]]&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode=";;;&quot;Enemy&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
@@ -3006,7 +3579,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode=";;;&quot;^^^&quot;"/>
+      <numFmt numFmtId="168" formatCode=";;;&quot;^^^&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -3022,7 +3595,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode=";;;\ &quot;*/*&quot;"/>
+      <numFmt numFmtId="169" formatCode=";;;\ &quot;*/*&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
@@ -3041,7 +3614,7 @@
       <numFmt numFmtId="170" formatCode=";;;\ &quot;Stair&quot;"/>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
       <border>
@@ -3062,7 +3635,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="180" formatCode=";;;\ &quot;{     }&quot;"/>
+      <numFmt numFmtId="171" formatCode=";;;\ &quot;{     }&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF964B00"/>
@@ -3078,7 +3651,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="181" formatCode=";;;\ &quot;{XX}&quot;"/>
+      <numFmt numFmtId="172" formatCode=";;;\ &quot;{XX}&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF964B00"/>
@@ -3094,7 +3667,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="184" formatCode=";;;\ &quot;NPC&quot;"/>
+      <numFmt numFmtId="173" formatCode=";;;\ &quot;NPC&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
@@ -3110,7 +3683,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="185" formatCode=";;;\ &quot;_==_&quot;"/>
+      <numFmt numFmtId="174" formatCode=";;;\ &quot;_==_&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
@@ -3126,10 +3699,10 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="186" formatCode=";;;\ &quot;Special&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
+      <numFmt numFmtId="175" formatCode=";;;\ &quot;Item&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
       <border>
@@ -3150,10 +3723,10 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="183" formatCode=";;;\ &quot;Item&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
+      <numFmt numFmtId="176" formatCode=";;;\ &quot;Spec&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
         </patternFill>
       </fill>
       <border>
@@ -3174,10 +3747,13 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="183" formatCode=";;;\ &quot;Item&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
+      <font>
+        <color theme="0"/>
+      </font>
+      <numFmt numFmtId="177" formatCode=";;;\ &quot;TRIG&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
         </patternFill>
       </fill>
       <border>
@@ -3198,10 +3774,110 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="186" formatCode=";;;\ &quot;Special&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
+      <numFmt numFmtId="164" formatCode=";;;\ &quot;&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode=";;;&quot;[[]]&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode=";;;&quot;Enemy&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dotted">
+          <color auto="1"/>
+        </left>
+        <right style="dotted">
+          <color auto="1"/>
+        </right>
+        <top style="dotted">
+          <color auto="1"/>
+        </top>
+        <bottom style="dotted">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode=";;;&quot;^^^&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=";;;\ &quot;*/*&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=";;;\ &quot;Stair&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
       <border>
@@ -3222,110 +3898,74 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode=";;;\ &quot;&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode=";;;&quot;&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode=";;;&quot;[[]]&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode=";;;&quot;Enemy&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dotted">
-          <color auto="1"/>
-        </left>
-        <right style="dotted">
-          <color auto="1"/>
-        </right>
-        <top style="dotted">
-          <color auto="1"/>
-        </top>
-        <bottom style="dotted">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=";;;&quot;^^^&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode=";;;\ &quot;*/*&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=";;;\ &quot;Stair&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
+      <numFmt numFmtId="171" formatCode=";;;\ &quot;{     }&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF964B00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode=";;;\ &quot;{XX}&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF964B00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="173" formatCode=";;;\ &quot;NPC&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="174" formatCode=";;;\ &quot;_==_&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="175" formatCode=";;;\ &quot;Item&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
       <border>
@@ -3346,71 +3986,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="180" formatCode=";;;\ &quot;{     }&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF964B00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="181" formatCode=";;;\ &quot;{XX}&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF964B00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="184" formatCode=";;;\ &quot;NPC&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="185" formatCode=";;;\ &quot;_==_&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="186" formatCode=";;;\ &quot;Special&quot;"/>
+      <numFmt numFmtId="176" formatCode=";;;\ &quot;Spec&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF7030A0"/>
@@ -3434,110 +4010,13 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode=";;;\ &quot;&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode=";;;&quot;&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode=";;;&quot;[[]]&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode=";;;&quot;Enemy&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dotted">
-          <color auto="1"/>
-        </left>
-        <right style="dotted">
-          <color auto="1"/>
-        </right>
-        <top style="dotted">
-          <color auto="1"/>
-        </top>
-        <bottom style="dotted">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=";;;&quot;^^^&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode=";;;\ &quot;*/*&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=";;;\ &quot;Stair&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
+      <font>
+        <color theme="0"/>
+      </font>
+      <numFmt numFmtId="177" formatCode=";;;\ &quot;TRIG&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
         </patternFill>
       </fill>
       <border>
@@ -3553,258 +4032,6 @@
         <bottom style="dashDot">
           <color auto="1"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="180" formatCode=";;;\ &quot;{     }&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF964B00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="181" formatCode=";;;\ &quot;{XX}&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF964B00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="184" formatCode=";;;\ &quot;NPC&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="185" formatCode=";;;\ &quot;_==_&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode=";;;\ &quot;&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode=";;;&quot;&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode=";;;&quot;[[]]&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode=";;;&quot;Enemy&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dotted">
-          <color auto="1"/>
-        </left>
-        <right style="dotted">
-          <color auto="1"/>
-        </right>
-        <top style="dotted">
-          <color auto="1"/>
-        </top>
-        <bottom style="dotted">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=";;;&quot;^^^&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode=";;;\ &quot;*/*&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=";;;\ &quot;Stair&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDot">
-          <color auto="1"/>
-        </left>
-        <right style="dashDot">
-          <color auto="1"/>
-        </right>
-        <top style="dashDot">
-          <color auto="1"/>
-        </top>
-        <bottom style="dashDot">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="180" formatCode=";;;\ &quot;{     }&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF964B00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="181" formatCode=";;;\ &quot;{XX}&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF964B00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="184" formatCode=";;;\ &quot;NPC&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="185" formatCode=";;;\ &quot;_==_&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
         <vertical/>
         <horizontal/>
       </border>
@@ -4144,10 +4371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6807871-FC9A-4F10-876C-8CA0C6A51D84}">
-  <dimension ref="A1:AD28"/>
+  <dimension ref="A1:AD32"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="AD21" sqref="AD20:AD21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4165,26 +4392,25 @@
     </row>
     <row r="2" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>0</v>
@@ -4210,23 +4436,18 @@
     </row>
     <row r="4" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>12</v>
+      </c>
       <c r="D4" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M4" s="3" t="s">
+      <c r="L4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N4" s="1" t="s">
@@ -4248,13 +4469,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" s="3"/>
+    <row r="5" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="T5" s="1" t="s">
         <v>0</v>
       </c>
@@ -4268,23 +4495,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>8</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B6" s="13"/>
       <c r="D6" s="1" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="T6" s="1" t="s">
         <v>0</v>
       </c>
@@ -4307,7 +4540,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="T7" s="1" t="s">
         <v>0</v>
       </c>
@@ -4317,16 +4562,26 @@
     </row>
     <row r="8" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>21</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B8" s="14"/>
       <c r="D8" s="1" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>6</v>
+        <v>43</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>0</v>
@@ -4335,8 +4590,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M9" s="15"/>
+    <row r="9" spans="1:30" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M9" s="12"/>
       <c r="T9" s="1" t="s">
         <v>0</v>
       </c>
@@ -4356,18 +4611,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="T10" s="1" t="s">
         <v>0</v>
@@ -4376,7 +4631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="T11" s="1" t="s">
         <v>0</v>
       </c>
@@ -4395,16 +4650,16 @@
     </row>
     <row r="12" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>18</v>
+        <v>6</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>21</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>0</v>
@@ -4453,16 +4708,16 @@
     </row>
     <row r="14" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>0</v>
@@ -4508,16 +4763,16 @@
     </row>
     <row r="16" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>0</v>
@@ -4548,131 +4803,165 @@
     </row>
     <row r="18" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>35</v>
+        <v>20</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>36</v>
+        <v>24</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>37</v>
+        <v>27</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="D32" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>38</v>
+      <c r="G32" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:ZZ1048576">
-    <cfRule type="containsText" dxfId="41" priority="4" operator="containsText" text="i">
+    <cfRule type="containsText" dxfId="169" priority="1" operator="containsText" text="f1">
+      <formula>NOT(ISERROR(SEARCH("f1",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="168" priority="2" operator="containsText" text="f2">
+      <formula>NOT(ISERROR(SEARCH("f2",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="167" priority="4" operator="containsText" text="tr">
+      <formula>NOT(ISERROR(SEARCH("tr",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="154" priority="5" operator="containsText" text="sp">
+      <formula>NOT(ISERROR(SEARCH("sp",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="166" priority="6" operator="containsText" text="i">
       <formula>NOT(ISERROR(SEARCH("i",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="3" operator="containsText" text="sp">
-      <formula>NOT(ISERROR(SEARCH("sp",F1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="16" operator="containsText" text="b">
+    <cfRule type="containsText" dxfId="165" priority="18" operator="containsText" text="b">
       <formula>NOT(ISERROR(SEARCH("b",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="17" operator="containsText" text="n">
+    <cfRule type="containsText" dxfId="164" priority="19" operator="containsText" text="n">
       <formula>NOT(ISERROR(SEARCH("n",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="18" operator="containsText" text="l">
+    <cfRule type="containsText" dxfId="163" priority="20" operator="containsText" text="l">
       <formula>NOT(ISERROR(SEARCH("l",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="19" operator="containsText" text="d">
+    <cfRule type="containsText" dxfId="162" priority="21" operator="containsText" text="d">
       <formula>NOT(ISERROR(SEARCH("d",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="20" operator="containsText" text="s">
+    <cfRule type="containsText" dxfId="161" priority="22" operator="containsText" text="s">
       <formula>NOT(ISERROR(SEARCH("s",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="21" operator="containsText" text="o">
+    <cfRule type="containsText" dxfId="160" priority="23" operator="containsText" text="o">
       <formula>NOT(ISERROR(SEARCH("o",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="22" operator="containsText" text="t">
+    <cfRule type="containsText" dxfId="159" priority="24" operator="containsText" text="t">
       <formula>NOT(ISERROR(SEARCH("t",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="23" operator="containsText" text="e">
+    <cfRule type="containsText" dxfId="158" priority="25" operator="containsText" text="e">
       <formula>NOT(ISERROR(SEARCH("e",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="24" operator="containsText" text="p">
+    <cfRule type="containsText" dxfId="157" priority="26" operator="containsText" text="p">
       <formula>NOT(ISERROR(SEARCH("p",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="25" operator="containsText" text="f">
+    <cfRule type="containsText" dxfId="156" priority="27" operator="containsText" text="f">
       <formula>NOT(ISERROR(SEARCH("f",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="26" operator="containsText" text="w">
+    <cfRule type="containsText" dxfId="155" priority="28" operator="containsText" text="w">
       <formula>NOT(ISERROR(SEARCH("w",F1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="2" operator="containsText" text="tr">
-      <formula>NOT(ISERROR(SEARCH("tr",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4681,10 +4970,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71703A0C-631C-4E5E-B6AB-1F6B75B02AA7}">
-  <dimension ref="A1:AD28"/>
+  <dimension ref="A1:AD32"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="AD20" sqref="AD20:AD21"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4702,22 +4991,21 @@
     </row>
     <row r="2" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B2" s="3"/>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" s="3" t="s">
+      <c r="L3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="N3" s="1" t="s">
@@ -4747,23 +5035,21 @@
     </row>
     <row r="4" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>12</v>
+      </c>
       <c r="D4" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M4" s="3" t="s">
+      <c r="K4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N4" s="1" t="s">
@@ -4785,13 +5071,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3" t="s">
+    <row r="5" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="3"/>
       <c r="T5" s="1" t="s">
         <v>0</v>
       </c>
@@ -4805,23 +5088,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>8</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B6" s="13"/>
       <c r="D6" s="1" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
+        <v>42</v>
+      </c>
       <c r="T6" s="1" t="s">
         <v>0</v>
       </c>
@@ -4844,7 +5121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T7" s="1" t="s">
         <v>0</v>
       </c>
@@ -4854,16 +5131,14 @@
     </row>
     <row r="8" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>21</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B8" s="14"/>
       <c r="D8" s="1" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>0</v>
@@ -4872,8 +5147,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M9" s="15"/>
+    <row r="9" spans="1:30" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M9" s="12"/>
       <c r="T9" s="1" t="s">
         <v>0</v>
       </c>
@@ -4893,15 +5168,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>9</v>
@@ -4913,7 +5188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="T11" s="1" t="s">
         <v>0</v>
       </c>
@@ -4932,13 +5207,13 @@
     </row>
     <row r="12" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>18</v>
+        <v>6</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>21</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>13</v>
@@ -4990,13 +5265,13 @@
     </row>
     <row r="14" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>15</v>
@@ -5045,13 +5320,13 @@
     </row>
     <row r="16" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>19</v>
@@ -5085,13 +5360,13 @@
     </row>
     <row r="18" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>20</v>
@@ -5099,13 +5374,13 @@
     </row>
     <row r="20" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>24</v>
@@ -5113,102 +5388,124 @@
     </row>
     <row r="22" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>35</v>
+        <v>20</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>36</v>
+        <v>24</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>37</v>
+        <v>27</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="D32" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:ZZ1048576">
-    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="tr">
+    <cfRule type="containsText" dxfId="183" priority="1" operator="containsText" text="tr">
       <formula>NOT(ISERROR(SEARCH("tr",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="2" operator="containsText" text="sp">
+    <cfRule type="containsText" dxfId="182" priority="2" operator="containsText" text="sp">
       <formula>NOT(ISERROR(SEARCH("sp",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="3" operator="containsText" text="i">
+    <cfRule type="containsText" dxfId="181" priority="3" operator="containsText" text="i">
       <formula>NOT(ISERROR(SEARCH("i",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="4" operator="containsText" text="b">
+    <cfRule type="containsText" dxfId="180" priority="4" operator="containsText" text="b">
       <formula>NOT(ISERROR(SEARCH("b",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="5" operator="containsText" text="n">
+    <cfRule type="containsText" dxfId="179" priority="5" operator="containsText" text="n">
       <formula>NOT(ISERROR(SEARCH("n",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="6" operator="containsText" text="l">
+    <cfRule type="containsText" dxfId="178" priority="6" operator="containsText" text="l">
       <formula>NOT(ISERROR(SEARCH("l",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="7" operator="containsText" text="d">
+    <cfRule type="containsText" dxfId="177" priority="7" operator="containsText" text="d">
       <formula>NOT(ISERROR(SEARCH("d",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="8" operator="containsText" text="s">
+    <cfRule type="containsText" dxfId="176" priority="8" operator="containsText" text="s">
       <formula>NOT(ISERROR(SEARCH("s",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="9" operator="containsText" text="o">
+    <cfRule type="containsText" dxfId="175" priority="9" operator="containsText" text="o">
       <formula>NOT(ISERROR(SEARCH("o",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="10" operator="containsText" text="t">
+    <cfRule type="containsText" dxfId="174" priority="10" operator="containsText" text="t">
       <formula>NOT(ISERROR(SEARCH("t",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="11" operator="containsText" text="e">
+    <cfRule type="containsText" dxfId="173" priority="11" operator="containsText" text="e">
       <formula>NOT(ISERROR(SEARCH("e",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="12" operator="containsText" text="p">
+    <cfRule type="containsText" dxfId="172" priority="12" operator="containsText" text="p">
       <formula>NOT(ISERROR(SEARCH("p",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="13" operator="containsText" text="f">
+    <cfRule type="containsText" dxfId="171" priority="13" operator="containsText" text="f">
       <formula>NOT(ISERROR(SEARCH("f",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="14" operator="containsText" text="w">
+    <cfRule type="containsText" dxfId="170" priority="14" operator="containsText" text="w">
       <formula>NOT(ISERROR(SEARCH("w",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5218,10 +5515,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C0ACCB-6970-40A9-A1B0-FD91C954B37E}">
-  <dimension ref="A1:AD28"/>
+  <dimension ref="A1:AD32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="AD20" sqref="AD20:AD21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5236,25 +5533,25 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B2" s="3"/>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" s="3" t="s">
+      <c r="L3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="N3" s="1" t="s">
@@ -5284,23 +5581,21 @@
     </row>
     <row r="4" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>12</v>
+      </c>
       <c r="D4" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M4" s="3" t="s">
+      <c r="L4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N4" s="1" t="s">
@@ -5322,13 +5617,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3" t="s">
+    <row r="5" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="3"/>
       <c r="T5" s="1" t="s">
         <v>0</v>
       </c>
@@ -5342,23 +5634,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>8</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B6" s="13"/>
       <c r="D6" s="1" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
       <c r="T6" s="1" t="s">
         <v>0</v>
       </c>
@@ -5381,7 +5667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T7" s="1" t="s">
         <v>0</v>
       </c>
@@ -5391,13 +5677,11 @@
     </row>
     <row r="8" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>21</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B8" s="14"/>
       <c r="D8" s="1" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>6</v>
@@ -5409,8 +5693,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M9" s="15"/>
+    <row r="9" spans="1:30" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M9" s="12"/>
       <c r="T9" s="1" t="s">
         <v>0</v>
       </c>
@@ -5430,15 +5714,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>9</v>
@@ -5450,7 +5734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="T11" s="1" t="s">
         <v>0</v>
       </c>
@@ -5469,13 +5753,13 @@
     </row>
     <row r="12" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>18</v>
+        <v>6</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>21</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>13</v>
@@ -5527,13 +5811,13 @@
     </row>
     <row r="14" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>15</v>
@@ -5582,13 +5866,13 @@
     </row>
     <row r="16" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>19</v>
@@ -5622,13 +5906,13 @@
     </row>
     <row r="18" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>20</v>
@@ -5636,13 +5920,13 @@
     </row>
     <row r="20" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>24</v>
@@ -5650,102 +5934,987 @@
     </row>
     <row r="22" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>35</v>
+        <v>20</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>36</v>
+        <v>24</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>37</v>
+        <v>27</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="D32" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:ZZ1048576">
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="tr">
+    <cfRule type="containsText" dxfId="61" priority="1" operator="containsText" text="f1">
+      <formula>NOT(ISERROR(SEARCH("f1",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="60" priority="2" operator="containsText" text="f2">
+      <formula>NOT(ISERROR(SEARCH("f2",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="59" priority="3" operator="containsText" text="tr">
       <formula>NOT(ISERROR(SEARCH("tr",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="sp">
+    <cfRule type="containsText" dxfId="58" priority="4" operator="containsText" text="sp">
       <formula>NOT(ISERROR(SEARCH("sp",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="i">
+    <cfRule type="containsText" dxfId="57" priority="5" operator="containsText" text="i">
       <formula>NOT(ISERROR(SEARCH("i",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="b">
+    <cfRule type="containsText" dxfId="56" priority="6" operator="containsText" text="b">
       <formula>NOT(ISERROR(SEARCH("b",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="n">
+    <cfRule type="containsText" dxfId="55" priority="7" operator="containsText" text="n">
       <formula>NOT(ISERROR(SEARCH("n",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="l">
+    <cfRule type="containsText" dxfId="54" priority="8" operator="containsText" text="l">
       <formula>NOT(ISERROR(SEARCH("l",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="d">
+    <cfRule type="containsText" dxfId="53" priority="9" operator="containsText" text="d">
       <formula>NOT(ISERROR(SEARCH("d",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="s">
+    <cfRule type="containsText" dxfId="52" priority="10" operator="containsText" text="s">
       <formula>NOT(ISERROR(SEARCH("s",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="o">
+    <cfRule type="containsText" dxfId="51" priority="11" operator="containsText" text="o">
       <formula>NOT(ISERROR(SEARCH("o",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="10" operator="containsText" text="t">
+    <cfRule type="containsText" dxfId="50" priority="12" operator="containsText" text="t">
       <formula>NOT(ISERROR(SEARCH("t",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="11" operator="containsText" text="e">
+    <cfRule type="containsText" dxfId="49" priority="13" operator="containsText" text="e">
       <formula>NOT(ISERROR(SEARCH("e",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="12" operator="containsText" text="p">
+    <cfRule type="containsText" dxfId="48" priority="14" operator="containsText" text="p">
       <formula>NOT(ISERROR(SEARCH("p",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="13" operator="containsText" text="f">
+    <cfRule type="containsText" dxfId="47" priority="15" operator="containsText" text="f">
       <formula>NOT(ISERROR(SEARCH("f",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="14" operator="containsText" text="w">
+    <cfRule type="containsText" dxfId="46" priority="16" operator="containsText" text="w">
+      <formula>NOT(ISERROR(SEARCH("w",F1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D649333-D32F-4043-A4F6-56DD9D642EED}">
+  <dimension ref="A1:AC32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F16" workbookViewId="0">
+      <selection activeCell="Y25" sqref="Y25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="6.7109375" style="1"/>
+    <col min="4" max="4" width="18.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="2"/>
+    <col min="6" max="6" width="6.7109375" style="1"/>
+    <col min="7" max="7" width="6.7109375" style="17"/>
+    <col min="8" max="16384" width="6.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="D6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="D8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M9" s="12"/>
+    </row>
+    <row r="10" spans="1:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T19" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="U19" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="V19" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="W19" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="X19" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y19" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z19" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T20" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="U20" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="V20" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="W20" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="X20" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y20" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z20" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="U21" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="V21" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="W21" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="X21" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y21" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z21" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T22" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="U22" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="V22" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="W22" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="X22" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y22" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z22" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC22" s="17"/>
+    </row>
+    <row r="23" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T23" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="U23" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="V23" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="W23" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="X23" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y23" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z23" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA23" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T24" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="U24" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="V24" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="W24" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="X24" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y24" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA24" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U25" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="V25" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="W25" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="X25" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y25" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z25" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA25" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F1:ZZ1048576">
+    <cfRule type="containsText" dxfId="107" priority="1" operator="containsText" text="f1">
+      <formula>NOT(ISERROR(SEARCH("f1",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="106" priority="2" operator="containsText" text="f2">
+      <formula>NOT(ISERROR(SEARCH("f2",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="105" priority="3" operator="containsText" text="tr">
+      <formula>NOT(ISERROR(SEARCH("tr",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="104" priority="4" operator="containsText" text="sp">
+      <formula>NOT(ISERROR(SEARCH("sp",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="103" priority="5" operator="containsText" text="i">
+      <formula>NOT(ISERROR(SEARCH("i",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="102" priority="6" operator="containsText" text="b">
+      <formula>NOT(ISERROR(SEARCH("b",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="101" priority="7" operator="containsText" text="n">
+      <formula>NOT(ISERROR(SEARCH("n",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="100" priority="8" operator="containsText" text="l">
+      <formula>NOT(ISERROR(SEARCH("l",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="99" priority="9" operator="containsText" text="d">
+      <formula>NOT(ISERROR(SEARCH("d",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="98" priority="10" operator="containsText" text="s">
+      <formula>NOT(ISERROR(SEARCH("s",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="97" priority="11" operator="containsText" text="o">
+      <formula>NOT(ISERROR(SEARCH("o",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="96" priority="12" operator="containsText" text="t">
+      <formula>NOT(ISERROR(SEARCH("t",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="95" priority="13" operator="containsText" text="e">
+      <formula>NOT(ISERROR(SEARCH("e",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="94" priority="14" operator="containsText" text="p">
+      <formula>NOT(ISERROR(SEARCH("p",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="93" priority="15" operator="containsText" text="f">
+      <formula>NOT(ISERROR(SEARCH("f",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="92" priority="16" operator="containsText" text="w">
       <formula>NOT(ISERROR(SEARCH("w",F1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Level Design/Level_Design_Book.xlsx
+++ b/Level Design/Level_Design_Book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Andre\GitHub\DungeonGoop\Level Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E22A7AE-91CB-4C70-9DC1-B79413618D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB64B4D-833F-4A04-879F-186D18CE5BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="450" yWindow="690" windowWidth="27390" windowHeight="13395" activeTab="3" xr2:uid="{CA1DF132-283B-4423-BE0F-36DBE9B529A1}"/>
   </bookViews>
@@ -367,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -417,14 +417,11 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="198">
+  <dxfs count="62">
     <dxf>
       <numFmt numFmtId="164" formatCode=";;;\ &quot;&quot;"/>
       <fill>
@@ -638,7 +635,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="184" formatCode=";;;\ &quot;SPEC&quot;"/>
+      <numFmt numFmtId="176" formatCode=";;;\ &quot;SPEC&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF7030A0"/>
@@ -925,7 +922,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="184" formatCode=";;;\ &quot;SPEC&quot;"/>
+      <numFmt numFmtId="176" formatCode=";;;\ &quot;SPEC&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF7030A0"/>
@@ -1212,7 +1209,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode=";;;\ &quot;Spec&quot;"/>
+      <numFmt numFmtId="178" formatCode=";;;\ &quot;Spec&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF7030A0"/>
@@ -1475,7 +1472,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="184" formatCode=";;;\ &quot;SPEC&quot;"/>
+      <numFmt numFmtId="176" formatCode=";;;\ &quot;SPEC&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF7030A0"/>
@@ -1545,2493 +1542,6 @@
         </patternFill>
       </fill>
       <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode=";;;\ &quot;&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode=";;;&quot;[[]]&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode=";;;&quot;Enemy&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dotted">
-          <color auto="1"/>
-        </left>
-        <right style="dotted">
-          <color auto="1"/>
-        </right>
-        <top style="dotted">
-          <color auto="1"/>
-        </top>
-        <bottom style="dotted">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode=";;;&quot;^^^&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=";;;\ &quot;*/*&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=";;;\ &quot;Stair&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDot">
-          <color auto="1"/>
-        </left>
-        <right style="dashDot">
-          <color auto="1"/>
-        </right>
-        <top style="dashDot">
-          <color auto="1"/>
-        </top>
-        <bottom style="dashDot">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=";;;\ &quot;{     }&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF964B00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="172" formatCode=";;;\ &quot;{XX}&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF964B00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="173" formatCode=";;;\ &quot;NPC&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="174" formatCode=";;;\ &quot;_==_&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="175" formatCode=";;;\ &quot;Item&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDot">
-          <color auto="1"/>
-        </left>
-        <right style="dashDot">
-          <color auto="1"/>
-        </right>
-        <top style="dashDot">
-          <color auto="1"/>
-        </top>
-        <bottom style="dashDot">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="184" formatCode=";;;\ &quot;SPEC&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDot">
-          <color auto="1"/>
-        </left>
-        <right style="dashDot">
-          <color auto="1"/>
-        </right>
-        <top style="dashDot">
-          <color auto="1"/>
-        </top>
-        <bottom style="dashDot">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <numFmt numFmtId="177" formatCode=";;;\ &quot;TRIG&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDot">
-          <color auto="1"/>
-        </left>
-        <right style="dashDot">
-          <color auto="1"/>
-        </right>
-        <top style="dashDot">
-          <color auto="1"/>
-        </top>
-        <bottom style="dashDot">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode=";;;\ &quot;&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode=";;;&quot;[[]]&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode=";;;&quot;Enemy&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dotted">
-          <color auto="1"/>
-        </left>
-        <right style="dotted">
-          <color auto="1"/>
-        </right>
-        <top style="dotted">
-          <color auto="1"/>
-        </top>
-        <bottom style="dotted">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode=";;;&quot;^^^&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=";;;\ &quot;*/*&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=";;;\ &quot;Stair&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDot">
-          <color auto="1"/>
-        </left>
-        <right style="dashDot">
-          <color auto="1"/>
-        </right>
-        <top style="dashDot">
-          <color auto="1"/>
-        </top>
-        <bottom style="dashDot">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=";;;\ &quot;{     }&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF964B00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="172" formatCode=";;;\ &quot;{XX}&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF964B00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="173" formatCode=";;;\ &quot;NPC&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="174" formatCode=";;;\ &quot;_==_&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="175" formatCode=";;;\ &quot;Item&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDot">
-          <color auto="1"/>
-        </left>
-        <right style="dashDot">
-          <color auto="1"/>
-        </right>
-        <top style="dashDot">
-          <color auto="1"/>
-        </top>
-        <bottom style="dashDot">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode=";;;\ &quot;Spec&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDot">
-          <color auto="1"/>
-        </left>
-        <right style="dashDot">
-          <color auto="1"/>
-        </right>
-        <top style="dashDot">
-          <color auto="1"/>
-        </top>
-        <bottom style="dashDot">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <numFmt numFmtId="177" formatCode=";;;\ &quot;TRIG&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDot">
-          <color auto="1"/>
-        </left>
-        <right style="dashDot">
-          <color auto="1"/>
-        </right>
-        <top style="dashDot">
-          <color auto="1"/>
-        </top>
-        <bottom style="dashDot">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode=";;;\ &quot;&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode=";;;&quot;[[]]&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode=";;;&quot;Enemy&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dotted">
-          <color auto="1"/>
-        </left>
-        <right style="dotted">
-          <color auto="1"/>
-        </right>
-        <top style="dotted">
-          <color auto="1"/>
-        </top>
-        <bottom style="dotted">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode=";;;&quot;^^^&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=";;;\ &quot;*/*&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=";;;\ &quot;Stair&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDot">
-          <color auto="1"/>
-        </left>
-        <right style="dashDot">
-          <color auto="1"/>
-        </right>
-        <top style="dashDot">
-          <color auto="1"/>
-        </top>
-        <bottom style="dashDot">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=";;;\ &quot;{     }&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF964B00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="172" formatCode=";;;\ &quot;{XX}&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF964B00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="173" formatCode=";;;\ &quot;NPC&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="174" formatCode=";;;\ &quot;_==_&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="175" formatCode=";;;\ &quot;Item&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDot">
-          <color auto="1"/>
-        </left>
-        <right style="dashDot">
-          <color auto="1"/>
-        </right>
-        <top style="dashDot">
-          <color auto="1"/>
-        </top>
-        <bottom style="dashDot">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="184" formatCode=";;;\ &quot;SPEC&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDot">
-          <color auto="1"/>
-        </left>
-        <right style="dashDot">
-          <color auto="1"/>
-        </right>
-        <top style="dashDot">
-          <color auto="1"/>
-        </top>
-        <bottom style="dashDot">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <numFmt numFmtId="177" formatCode=";;;\ &quot;TRIG&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDot">
-          <color auto="1"/>
-        </left>
-        <right style="dashDot">
-          <color auto="1"/>
-        </right>
-        <top style="dashDot">
-          <color auto="1"/>
-        </top>
-        <bottom style="dashDot">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode=";;;\ &quot;&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode=";;;&quot;[[]]&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode=";;;&quot;Enemy&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dotted">
-          <color auto="1"/>
-        </left>
-        <right style="dotted">
-          <color auto="1"/>
-        </right>
-        <top style="dotted">
-          <color auto="1"/>
-        </top>
-        <bottom style="dotted">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode=";;;&quot;^^^&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=";;;\ &quot;*/*&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=";;;\ &quot;Stair&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDot">
-          <color auto="1"/>
-        </left>
-        <right style="dashDot">
-          <color auto="1"/>
-        </right>
-        <top style="dashDot">
-          <color auto="1"/>
-        </top>
-        <bottom style="dashDot">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=";;;\ &quot;{     }&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF964B00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="172" formatCode=";;;\ &quot;{XX}&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF964B00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="173" formatCode=";;;\ &quot;NPC&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="174" formatCode=";;;\ &quot;_==_&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="175" formatCode=";;;\ &quot;Item&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDot">
-          <color auto="1"/>
-        </left>
-        <right style="dashDot">
-          <color auto="1"/>
-        </right>
-        <top style="dashDot">
-          <color auto="1"/>
-        </top>
-        <bottom style="dashDot">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="184" formatCode=";;;\ &quot;SPEC&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDot">
-          <color auto="1"/>
-        </left>
-        <right style="dashDot">
-          <color auto="1"/>
-        </right>
-        <top style="dashDot">
-          <color auto="1"/>
-        </top>
-        <bottom style="dashDot">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <numFmt numFmtId="177" formatCode=";;;\ &quot;TRIG&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDot">
-          <color auto="1"/>
-        </left>
-        <right style="dashDot">
-          <color auto="1"/>
-        </right>
-        <top style="dashDot">
-          <color auto="1"/>
-        </top>
-        <bottom style="dashDot">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode=";;;\ &quot;&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode=";;;&quot;[[]]&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode=";;;&quot;Enemy&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dotted">
-          <color auto="1"/>
-        </left>
-        <right style="dotted">
-          <color auto="1"/>
-        </right>
-        <top style="dotted">
-          <color auto="1"/>
-        </top>
-        <bottom style="dotted">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode=";;;&quot;^^^&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=";;;\ &quot;*/*&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=";;;\ &quot;Stair&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDot">
-          <color auto="1"/>
-        </left>
-        <right style="dashDot">
-          <color auto="1"/>
-        </right>
-        <top style="dashDot">
-          <color auto="1"/>
-        </top>
-        <bottom style="dashDot">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=";;;\ &quot;{     }&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF964B00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="172" formatCode=";;;\ &quot;{XX}&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF964B00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="173" formatCode=";;;\ &quot;NPC&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="174" formatCode=";;;\ &quot;_==_&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="175" formatCode=";;;\ &quot;Item&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDot">
-          <color auto="1"/>
-        </left>
-        <right style="dashDot">
-          <color auto="1"/>
-        </right>
-        <top style="dashDot">
-          <color auto="1"/>
-        </top>
-        <bottom style="dashDot">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode=";;;\ &quot;Spec&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDot">
-          <color auto="1"/>
-        </left>
-        <right style="dashDot">
-          <color auto="1"/>
-        </right>
-        <top style="dashDot">
-          <color auto="1"/>
-        </top>
-        <bottom style="dashDot">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <numFmt numFmtId="177" formatCode=";;;\ &quot;TRIG&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDot">
-          <color auto="1"/>
-        </left>
-        <right style="dashDot">
-          <color auto="1"/>
-        </right>
-        <top style="dashDot">
-          <color auto="1"/>
-        </top>
-        <bottom style="dashDot">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode=";;;\ &quot;&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode=";;;&quot;[[]]&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode=";;;&quot;Enemy&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dotted">
-          <color auto="1"/>
-        </left>
-        <right style="dotted">
-          <color auto="1"/>
-        </right>
-        <top style="dotted">
-          <color auto="1"/>
-        </top>
-        <bottom style="dotted">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode=";;;&quot;^^^&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=";;;\ &quot;*/*&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=";;;\ &quot;Stair&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDot">
-          <color auto="1"/>
-        </left>
-        <right style="dashDot">
-          <color auto="1"/>
-        </right>
-        <top style="dashDot">
-          <color auto="1"/>
-        </top>
-        <bottom style="dashDot">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=";;;\ &quot;{     }&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF964B00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="172" formatCode=";;;\ &quot;{XX}&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF964B00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="173" formatCode=";;;\ &quot;NPC&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="174" formatCode=";;;\ &quot;_==_&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="175" formatCode=";;;\ &quot;Item&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDot">
-          <color auto="1"/>
-        </left>
-        <right style="dashDot">
-          <color auto="1"/>
-        </right>
-        <top style="dashDot">
-          <color auto="1"/>
-        </top>
-        <bottom style="dashDot">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode=";;;\ &quot;Spec&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDot">
-          <color auto="1"/>
-        </left>
-        <right style="dashDot">
-          <color auto="1"/>
-        </right>
-        <top style="dashDot">
-          <color auto="1"/>
-        </top>
-        <bottom style="dashDot">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <numFmt numFmtId="177" formatCode=";;;\ &quot;TRIG&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDot">
-          <color auto="1"/>
-        </left>
-        <right style="dashDot">
-          <color auto="1"/>
-        </right>
-        <top style="dashDot">
-          <color auto="1"/>
-        </top>
-        <bottom style="dashDot">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="184" formatCode=";;;\ &quot;SPEC&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDot">
-          <color auto="1"/>
-        </left>
-        <right style="dashDot">
-          <color auto="1"/>
-        </right>
-        <top style="dashDot">
-          <color auto="1"/>
-        </top>
-        <bottom style="dashDot">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode=";;;\ &quot;&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode=";;;&quot;[[]]&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode=";;;&quot;Enemy&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dotted">
-          <color auto="1"/>
-        </left>
-        <right style="dotted">
-          <color auto="1"/>
-        </right>
-        <top style="dotted">
-          <color auto="1"/>
-        </top>
-        <bottom style="dotted">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode=";;;&quot;^^^&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=";;;\ &quot;*/*&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=";;;\ &quot;Stair&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDot">
-          <color auto="1"/>
-        </left>
-        <right style="dashDot">
-          <color auto="1"/>
-        </right>
-        <top style="dashDot">
-          <color auto="1"/>
-        </top>
-        <bottom style="dashDot">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=";;;\ &quot;{     }&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF964B00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="172" formatCode=";;;\ &quot;{XX}&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF964B00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="173" formatCode=";;;\ &quot;NPC&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="174" formatCode=";;;\ &quot;_==_&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="175" formatCode=";;;\ &quot;Item&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDot">
-          <color auto="1"/>
-        </left>
-        <right style="dashDot">
-          <color auto="1"/>
-        </right>
-        <top style="dashDot">
-          <color auto="1"/>
-        </top>
-        <bottom style="dashDot">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <numFmt numFmtId="177" formatCode=";;;\ &quot;TRIG&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDot">
-          <color auto="1"/>
-        </left>
-        <right style="dashDot">
-          <color auto="1"/>
-        </right>
-        <top style="dashDot">
-          <color auto="1"/>
-        </top>
-        <bottom style="dashDot">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode=";;;\ &quot;&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode=";;;&quot;[[]]&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode=";;;&quot;Enemy&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dotted">
-          <color auto="1"/>
-        </left>
-        <right style="dotted">
-          <color auto="1"/>
-        </right>
-        <top style="dotted">
-          <color auto="1"/>
-        </top>
-        <bottom style="dotted">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode=";;;&quot;^^^&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=";;;\ &quot;*/*&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=";;;\ &quot;Stair&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDot">
-          <color auto="1"/>
-        </left>
-        <right style="dashDot">
-          <color auto="1"/>
-        </right>
-        <top style="dashDot">
-          <color auto="1"/>
-        </top>
-        <bottom style="dashDot">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=";;;\ &quot;{     }&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF964B00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="172" formatCode=";;;\ &quot;{XX}&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF964B00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="173" formatCode=";;;\ &quot;NPC&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="174" formatCode=";;;\ &quot;_==_&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="175" formatCode=";;;\ &quot;Item&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDot">
-          <color auto="1"/>
-        </left>
-        <right style="dashDot">
-          <color auto="1"/>
-        </right>
-        <top style="dashDot">
-          <color auto="1"/>
-        </top>
-        <bottom style="dashDot">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode=";;;\ &quot;Spec&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDot">
-          <color auto="1"/>
-        </left>
-        <right style="dashDot">
-          <color auto="1"/>
-        </right>
-        <top style="dashDot">
-          <color auto="1"/>
-        </top>
-        <bottom style="dashDot">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <numFmt numFmtId="177" formatCode=";;;\ &quot;TRIG&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDot">
-          <color auto="1"/>
-        </left>
-        <right style="dashDot">
-          <color auto="1"/>
-        </right>
-        <top style="dashDot">
-          <color auto="1"/>
-        </top>
-        <bottom style="dashDot">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode=";;;\ &quot;&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode=";;;&quot;[[]]&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode=";;;&quot;Enemy&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dotted">
-          <color auto="1"/>
-        </left>
-        <right style="dotted">
-          <color auto="1"/>
-        </right>
-        <top style="dotted">
-          <color auto="1"/>
-        </top>
-        <bottom style="dotted">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode=";;;&quot;^^^&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=";;;\ &quot;*/*&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=";;;\ &quot;Stair&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDot">
-          <color auto="1"/>
-        </left>
-        <right style="dashDot">
-          <color auto="1"/>
-        </right>
-        <top style="dashDot">
-          <color auto="1"/>
-        </top>
-        <bottom style="dashDot">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=";;;\ &quot;{     }&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF964B00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="172" formatCode=";;;\ &quot;{XX}&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF964B00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="173" formatCode=";;;\ &quot;NPC&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="174" formatCode=";;;\ &quot;_==_&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="175" formatCode=";;;\ &quot;Item&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDot">
-          <color auto="1"/>
-        </left>
-        <right style="dashDot">
-          <color auto="1"/>
-        </right>
-        <top style="dashDot">
-          <color auto="1"/>
-        </top>
-        <bottom style="dashDot">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode=";;;\ &quot;Spec&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDot">
-          <color auto="1"/>
-        </left>
-        <right style="dashDot">
-          <color auto="1"/>
-        </right>
-        <top style="dashDot">
-          <color auto="1"/>
-        </top>
-        <bottom style="dashDot">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <numFmt numFmtId="177" formatCode=";;;\ &quot;TRIG&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDot">
-          <color auto="1"/>
-        </left>
-        <right style="dashDot">
-          <color auto="1"/>
-        </right>
-        <top style="dashDot">
-          <color auto="1"/>
-        </top>
-        <bottom style="dashDot">
-          <color auto="1"/>
-        </bottom>
         <vertical/>
         <horizontal/>
       </border>
@@ -4915,52 +2425,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:ZZ1048576">
-    <cfRule type="containsText" dxfId="169" priority="1" operator="containsText" text="f1">
+    <cfRule type="containsText" dxfId="61" priority="1" operator="containsText" text="f1">
       <formula>NOT(ISERROR(SEARCH("f1",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="2" operator="containsText" text="f2">
+    <cfRule type="containsText" dxfId="60" priority="2" operator="containsText" text="f2">
       <formula>NOT(ISERROR(SEARCH("f2",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="167" priority="4" operator="containsText" text="tr">
+    <cfRule type="containsText" dxfId="59" priority="4" operator="containsText" text="tr">
       <formula>NOT(ISERROR(SEARCH("tr",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="5" operator="containsText" text="sp">
+    <cfRule type="containsText" dxfId="58" priority="5" operator="containsText" text="sp">
       <formula>NOT(ISERROR(SEARCH("sp",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="6" operator="containsText" text="i">
+    <cfRule type="containsText" dxfId="57" priority="6" operator="containsText" text="i">
       <formula>NOT(ISERROR(SEARCH("i",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="18" operator="containsText" text="b">
+    <cfRule type="containsText" dxfId="56" priority="18" operator="containsText" text="b">
       <formula>NOT(ISERROR(SEARCH("b",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="164" priority="19" operator="containsText" text="n">
+    <cfRule type="containsText" dxfId="55" priority="19" operator="containsText" text="n">
       <formula>NOT(ISERROR(SEARCH("n",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="163" priority="20" operator="containsText" text="l">
+    <cfRule type="containsText" dxfId="54" priority="20" operator="containsText" text="l">
       <formula>NOT(ISERROR(SEARCH("l",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="21" operator="containsText" text="d">
+    <cfRule type="containsText" dxfId="53" priority="21" operator="containsText" text="d">
       <formula>NOT(ISERROR(SEARCH("d",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="161" priority="22" operator="containsText" text="s">
+    <cfRule type="containsText" dxfId="52" priority="22" operator="containsText" text="s">
       <formula>NOT(ISERROR(SEARCH("s",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="23" operator="containsText" text="o">
+    <cfRule type="containsText" dxfId="51" priority="23" operator="containsText" text="o">
       <formula>NOT(ISERROR(SEARCH("o",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="24" operator="containsText" text="t">
+    <cfRule type="containsText" dxfId="50" priority="24" operator="containsText" text="t">
       <formula>NOT(ISERROR(SEARCH("t",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="158" priority="25" operator="containsText" text="e">
+    <cfRule type="containsText" dxfId="49" priority="25" operator="containsText" text="e">
       <formula>NOT(ISERROR(SEARCH("e",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="26" operator="containsText" text="p">
+    <cfRule type="containsText" dxfId="48" priority="26" operator="containsText" text="p">
       <formula>NOT(ISERROR(SEARCH("p",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="27" operator="containsText" text="f">
+    <cfRule type="containsText" dxfId="47" priority="27" operator="containsText" text="f">
       <formula>NOT(ISERROR(SEARCH("f",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="155" priority="28" operator="containsText" text="w">
+    <cfRule type="containsText" dxfId="46" priority="28" operator="containsText" text="w">
       <formula>NOT(ISERROR(SEARCH("w",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5466,46 +2976,46 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:ZZ1048576">
-    <cfRule type="containsText" dxfId="183" priority="1" operator="containsText" text="tr">
+    <cfRule type="containsText" dxfId="45" priority="1" operator="containsText" text="tr">
       <formula>NOT(ISERROR(SEARCH("tr",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="182" priority="2" operator="containsText" text="sp">
+    <cfRule type="containsText" dxfId="44" priority="2" operator="containsText" text="sp">
       <formula>NOT(ISERROR(SEARCH("sp",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="181" priority="3" operator="containsText" text="i">
+    <cfRule type="containsText" dxfId="43" priority="3" operator="containsText" text="i">
       <formula>NOT(ISERROR(SEARCH("i",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="180" priority="4" operator="containsText" text="b">
+    <cfRule type="containsText" dxfId="42" priority="4" operator="containsText" text="b">
       <formula>NOT(ISERROR(SEARCH("b",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="179" priority="5" operator="containsText" text="n">
+    <cfRule type="containsText" dxfId="41" priority="5" operator="containsText" text="n">
       <formula>NOT(ISERROR(SEARCH("n",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="6" operator="containsText" text="l">
+    <cfRule type="containsText" dxfId="40" priority="6" operator="containsText" text="l">
       <formula>NOT(ISERROR(SEARCH("l",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="177" priority="7" operator="containsText" text="d">
+    <cfRule type="containsText" dxfId="39" priority="7" operator="containsText" text="d">
       <formula>NOT(ISERROR(SEARCH("d",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="176" priority="8" operator="containsText" text="s">
+    <cfRule type="containsText" dxfId="38" priority="8" operator="containsText" text="s">
       <formula>NOT(ISERROR(SEARCH("s",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="175" priority="9" operator="containsText" text="o">
+    <cfRule type="containsText" dxfId="37" priority="9" operator="containsText" text="o">
       <formula>NOT(ISERROR(SEARCH("o",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="10" operator="containsText" text="t">
+    <cfRule type="containsText" dxfId="36" priority="10" operator="containsText" text="t">
       <formula>NOT(ISERROR(SEARCH("t",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="173" priority="11" operator="containsText" text="e">
+    <cfRule type="containsText" dxfId="35" priority="11" operator="containsText" text="e">
       <formula>NOT(ISERROR(SEARCH("e",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="12" operator="containsText" text="p">
+    <cfRule type="containsText" dxfId="34" priority="12" operator="containsText" text="p">
       <formula>NOT(ISERROR(SEARCH("p",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="13" operator="containsText" text="f">
+    <cfRule type="containsText" dxfId="33" priority="13" operator="containsText" text="f">
       <formula>NOT(ISERROR(SEARCH("f",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="14" operator="containsText" text="w">
+    <cfRule type="containsText" dxfId="32" priority="14" operator="containsText" text="w">
       <formula>NOT(ISERROR(SEARCH("w",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5533,7 +3043,6 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -6012,52 +3521,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:ZZ1048576">
-    <cfRule type="containsText" dxfId="61" priority="1" operator="containsText" text="f1">
+    <cfRule type="containsText" dxfId="31" priority="1" operator="containsText" text="f1">
       <formula>NOT(ISERROR(SEARCH("f1",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="2" operator="containsText" text="f2">
+    <cfRule type="containsText" dxfId="30" priority="2" operator="containsText" text="f2">
       <formula>NOT(ISERROR(SEARCH("f2",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="3" operator="containsText" text="tr">
+    <cfRule type="containsText" dxfId="29" priority="3" operator="containsText" text="tr">
       <formula>NOT(ISERROR(SEARCH("tr",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="4" operator="containsText" text="sp">
+    <cfRule type="containsText" dxfId="28" priority="4" operator="containsText" text="sp">
       <formula>NOT(ISERROR(SEARCH("sp",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="5" operator="containsText" text="i">
+    <cfRule type="containsText" dxfId="27" priority="5" operator="containsText" text="i">
       <formula>NOT(ISERROR(SEARCH("i",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="6" operator="containsText" text="b">
+    <cfRule type="containsText" dxfId="26" priority="6" operator="containsText" text="b">
       <formula>NOT(ISERROR(SEARCH("b",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="7" operator="containsText" text="n">
+    <cfRule type="containsText" dxfId="25" priority="7" operator="containsText" text="n">
       <formula>NOT(ISERROR(SEARCH("n",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="8" operator="containsText" text="l">
+    <cfRule type="containsText" dxfId="24" priority="8" operator="containsText" text="l">
       <formula>NOT(ISERROR(SEARCH("l",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="9" operator="containsText" text="d">
+    <cfRule type="containsText" dxfId="23" priority="9" operator="containsText" text="d">
       <formula>NOT(ISERROR(SEARCH("d",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="10" operator="containsText" text="s">
+    <cfRule type="containsText" dxfId="22" priority="10" operator="containsText" text="s">
       <formula>NOT(ISERROR(SEARCH("s",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="11" operator="containsText" text="o">
+    <cfRule type="containsText" dxfId="21" priority="11" operator="containsText" text="o">
       <formula>NOT(ISERROR(SEARCH("o",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="12" operator="containsText" text="t">
+    <cfRule type="containsText" dxfId="20" priority="12" operator="containsText" text="t">
       <formula>NOT(ISERROR(SEARCH("t",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="13" operator="containsText" text="e">
+    <cfRule type="containsText" dxfId="19" priority="13" operator="containsText" text="e">
       <formula>NOT(ISERROR(SEARCH("e",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="14" operator="containsText" text="p">
+    <cfRule type="containsText" dxfId="18" priority="14" operator="containsText" text="p">
       <formula>NOT(ISERROR(SEARCH("p",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="15" operator="containsText" text="f">
+    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="f">
       <formula>NOT(ISERROR(SEARCH("f",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="16" operator="containsText" text="w">
+    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="w">
       <formula>NOT(ISERROR(SEARCH("w",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6067,10 +3576,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D649333-D32F-4043-A4F6-56DD9D642EED}">
-  <dimension ref="A1:AC32"/>
+  <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F16" workbookViewId="0">
-      <selection activeCell="Y25" sqref="Y25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6078,9 +3587,7 @@
     <col min="1" max="3" width="6.7109375" style="1"/>
     <col min="4" max="4" width="18.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="6.7109375" style="2"/>
-    <col min="6" max="6" width="6.7109375" style="1"/>
-    <col min="7" max="7" width="6.7109375" style="17"/>
-    <col min="8" max="16384" width="6.7109375" style="1"/>
+    <col min="6" max="16384" width="6.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6096,7 +3603,7 @@
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6107,7 +3614,7 @@
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6119,7 +3626,7 @@
       <c r="D6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -6131,7 +3638,7 @@
       <c r="D8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="1" t="s">
         <v>43</v>
       </c>
     </row>
@@ -6148,7 +3655,7 @@
       <c r="D10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6163,7 +3670,7 @@
       <c r="D12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6177,7 +3684,7 @@
       <c r="D14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6244,7 +3751,7 @@
       <c r="D16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K16" s="1" t="s">
@@ -6299,7 +3806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K17" s="1" t="s">
         <v>0</v>
       </c>
@@ -6310,7 +3817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -6320,7 +3827,7 @@
       <c r="D18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K18" s="1" t="s">
@@ -6348,7 +3855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K19" s="1" t="s">
         <v>0</v>
       </c>
@@ -6370,32 +3877,32 @@
       <c r="S19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="T19" s="17" t="s">
+      <c r="T19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="U19" s="17" t="s">
+      <c r="U19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="V19" s="17" t="s">
+      <c r="V19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="W19" s="17" t="s">
+      <c r="W19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="X19" s="17" t="s">
+      <c r="X19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Y19" s="17" t="s">
+      <c r="Y19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Z19" s="17" t="s">
+      <c r="Z19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="AA19" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -6405,7 +3912,7 @@
       <c r="D20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="G20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K20" s="1" t="s">
@@ -6417,32 +3924,32 @@
       <c r="S20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="T20" s="17" t="s">
+      <c r="T20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="U20" s="17" t="s">
+      <c r="U20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="V20" s="17" t="s">
+      <c r="V20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="W20" s="17" t="s">
+      <c r="W20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="X20" s="17" t="s">
+      <c r="X20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Y20" s="17" t="s">
+      <c r="Y20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Z20" s="17" t="s">
+      <c r="Z20" s="1" t="s">
         <v>43</v>
       </c>
       <c r="AA20" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I21" s="1" t="s">
         <v>0</v>
       </c>
@@ -6458,32 +3965,32 @@
       <c r="S21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="T21" s="17" t="s">
+      <c r="T21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="U21" s="17" t="s">
+      <c r="U21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="V21" s="17" t="s">
+      <c r="V21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="W21" s="17" t="s">
+      <c r="W21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="X21" s="17" t="s">
+      <c r="X21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y21" s="17" t="s">
+      <c r="Y21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Z21" s="17" t="s">
+      <c r="Z21" s="1" t="s">
         <v>43</v>
       </c>
       <c r="AA21" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -6493,7 +4000,7 @@
       <c r="D22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I22" s="1" t="s">
@@ -6511,33 +4018,32 @@
       <c r="S22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="T22" s="17" t="s">
+      <c r="T22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="U22" s="17" t="s">
+      <c r="U22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="V22" s="17" t="s">
+      <c r="V22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="W22" s="17" t="s">
+      <c r="W22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="X22" s="17" t="s">
+      <c r="X22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y22" s="17" t="s">
+      <c r="Y22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Z22" s="17" t="s">
+      <c r="Z22" s="1" t="s">
         <v>43</v>
       </c>
       <c r="AA22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AC22" s="17"/>
-    </row>
-    <row r="23" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I23" s="1" t="s">
         <v>0</v>
       </c>
@@ -6553,32 +4059,32 @@
       <c r="S23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="T23" s="17" t="s">
+      <c r="T23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="U23" s="17" t="s">
+      <c r="U23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="V23" s="17" t="s">
+      <c r="V23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="W23" s="17" t="s">
+      <c r="W23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="X23" s="17" t="s">
+      <c r="X23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y23" s="17" t="s">
+      <c r="Y23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Z23" s="17" t="s">
+      <c r="Z23" s="1" t="s">
         <v>43</v>
       </c>
       <c r="AA23" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -6588,7 +4094,7 @@
       <c r="D24" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G24" s="17" t="s">
+      <c r="G24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K24" s="1" t="s">
@@ -6600,22 +4106,22 @@
       <c r="S24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="T24" s="17" t="s">
+      <c r="T24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="U24" s="17" t="s">
+      <c r="U24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="V24" s="17" t="s">
+      <c r="V24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="W24" s="17" t="s">
+      <c r="W24" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="X24" s="17" t="s">
+      <c r="X24" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Y24" s="17" t="s">
+      <c r="Y24" s="1" t="s">
         <v>43</v>
       </c>
       <c r="Z24" s="1" t="s">
@@ -6625,7 +4131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K25" s="1" t="s">
         <v>0</v>
       </c>
@@ -6650,29 +4156,29 @@
       <c r="T25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="U25" s="17" t="s">
+      <c r="U25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="V25" s="17" t="s">
+      <c r="V25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="W25" s="17" t="s">
+      <c r="W25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="X25" s="17" t="s">
+      <c r="X25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Y25" s="17" t="s">
+      <c r="Y25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Z25" s="17" t="s">
+      <c r="Z25" s="1" t="s">
         <v>6</v>
       </c>
       <c r="AA25" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -6682,7 +4188,7 @@
       <c r="D26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G26" s="17" t="s">
+      <c r="G26" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K26" s="1" t="s">
@@ -6710,7 +4216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K27" s="1" t="s">
         <v>0</v>
       </c>
@@ -6721,7 +4227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
@@ -6731,7 +4237,7 @@
       <c r="D28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G28" s="17" t="s">
+      <c r="G28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K28" s="1" t="s">
@@ -6786,7 +4292,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K29" s="1" t="s">
         <v>0</v>
       </c>
@@ -6839,7 +4345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -6849,11 +4355,11 @@
       <c r="D30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G30" s="17" t="s">
+      <c r="G30" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -6863,58 +4369,58 @@
       <c r="D32" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G32" s="17" t="s">
+      <c r="G32" s="1" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:ZZ1048576">
-    <cfRule type="containsText" dxfId="107" priority="1" operator="containsText" text="f1">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="f1">
       <formula>NOT(ISERROR(SEARCH("f1",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="2" operator="containsText" text="f2">
+    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="f2">
       <formula>NOT(ISERROR(SEARCH("f2",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="3" operator="containsText" text="tr">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="tr">
       <formula>NOT(ISERROR(SEARCH("tr",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="4" operator="containsText" text="sp">
+    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="sp">
       <formula>NOT(ISERROR(SEARCH("sp",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="5" operator="containsText" text="i">
+    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="i">
       <formula>NOT(ISERROR(SEARCH("i",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="6" operator="containsText" text="b">
+    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="b">
       <formula>NOT(ISERROR(SEARCH("b",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="7" operator="containsText" text="n">
+    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="n">
       <formula>NOT(ISERROR(SEARCH("n",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="8" operator="containsText" text="l">
+    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="l">
       <formula>NOT(ISERROR(SEARCH("l",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="9" operator="containsText" text="d">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="d">
       <formula>NOT(ISERROR(SEARCH("d",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="10" operator="containsText" text="s">
+    <cfRule type="containsText" dxfId="6" priority="10" operator="containsText" text="s">
       <formula>NOT(ISERROR(SEARCH("s",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="11" operator="containsText" text="o">
+    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="o">
       <formula>NOT(ISERROR(SEARCH("o",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="12" operator="containsText" text="t">
+    <cfRule type="containsText" dxfId="4" priority="12" operator="containsText" text="t">
       <formula>NOT(ISERROR(SEARCH("t",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="95" priority="13" operator="containsText" text="e">
+    <cfRule type="containsText" dxfId="3" priority="13" operator="containsText" text="e">
       <formula>NOT(ISERROR(SEARCH("e",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="14" operator="containsText" text="p">
+    <cfRule type="containsText" dxfId="2" priority="14" operator="containsText" text="p">
       <formula>NOT(ISERROR(SEARCH("p",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="15" operator="containsText" text="f">
+    <cfRule type="containsText" dxfId="1" priority="15" operator="containsText" text="f">
       <formula>NOT(ISERROR(SEARCH("f",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="16" operator="containsText" text="w">
+    <cfRule type="containsText" dxfId="0" priority="16" operator="containsText" text="w">
       <formula>NOT(ISERROR(SEARCH("w",F1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Level Design/Level_Design_Book.xlsx
+++ b/Level Design/Level_Design_Book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Andre\GitHub\DungeonGoop\Level Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB64B4D-833F-4A04-879F-186D18CE5BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC60F111-9DF1-410A-8FD5-8C85AF37D2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="450" yWindow="690" windowWidth="27390" windowHeight="13395" activeTab="3" xr2:uid="{CA1DF132-283B-4423-BE0F-36DBE9B529A1}"/>
+    <workbookView xWindow="29295" yWindow="1500" windowWidth="27390" windowHeight="13395" activeTab="3" xr2:uid="{CA1DF132-283B-4423-BE0F-36DBE9B529A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Legend" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="55">
   <si>
     <t>w</t>
   </si>
@@ -164,9 +164,6 @@
     <t>passable door</t>
   </si>
   <si>
-    <t>ww</t>
-  </si>
-  <si>
     <t>f1</t>
   </si>
   <si>
@@ -180,6 +177,33 @@
   </si>
   <si>
     <t>ld</t>
+  </si>
+  <si>
+    <t>~~~</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>xx</t>
+  </si>
+  <si>
+    <t>"Bootle" - Quest NPC</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Note Text</t>
+  </si>
+  <si>
+    <t>"Test"</t>
   </si>
 </sst>
 </file>
@@ -213,7 +237,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,6 +322,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -367,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -417,11 +447,20 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="62">
+  <dxfs count="118">
     <dxf>
       <numFmt numFmtId="164" formatCode=";;;\ &quot;&quot;"/>
       <fill>
@@ -710,6 +749,37 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <numFmt numFmtId="179" formatCode=";;;\ &quot;~~~&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode=";;;\ &quot;&quot;"/>
       <fill>
         <patternFill>
@@ -997,6 +1067,37 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <numFmt numFmtId="179" formatCode=";;;\ &quot;~~~&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode=";;;\ &quot;&quot;"/>
       <fill>
         <patternFill>
@@ -1028,7 +1129,7 @@
       <numFmt numFmtId="166" formatCode=";;;&quot;[[]]&quot;"/>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
       <border>
@@ -1100,7 +1201,7 @@
       <numFmt numFmtId="170" formatCode=";;;\ &quot;Stair&quot;"/>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
       <border>
@@ -1209,7 +1310,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode=";;;\ &quot;Spec&quot;"/>
+      <numFmt numFmtId="176" formatCode=";;;\ &quot;SPEC&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF7030A0"/>
@@ -1260,6 +1361,61 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <numFmt numFmtId="179" formatCode=";;;\ &quot;~~~&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode=";;;\ &quot;&quot;"/>
       <fill>
         <patternFill>
@@ -1542,6 +1698,881 @@
         </patternFill>
       </fill>
       <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <numFmt numFmtId="179" formatCode=";;;\ &quot;~~~&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode=";;;\ &quot;&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode=";;;&quot;[[]]&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode=";;;&quot;Enemy&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dotted">
+          <color auto="1"/>
+        </left>
+        <right style="dotted">
+          <color auto="1"/>
+        </right>
+        <top style="dotted">
+          <color auto="1"/>
+        </top>
+        <bottom style="dotted">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode=";;;&quot;^^^&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=";;;\ &quot;*/*&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=";;;\ &quot;Stair&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=";;;\ &quot;{     }&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF964B00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode=";;;\ &quot;{XX}&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF964B00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="173" formatCode=";;;\ &quot;NPC&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="174" formatCode=";;;\ &quot;_==_&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="175" formatCode=";;;\ &quot;Item&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode=";;;\ &quot;SPEC&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <numFmt numFmtId="177" formatCode=";;;\ &quot;TRIG&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <numFmt numFmtId="179" formatCode=";;;\ &quot;~~~&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode=";;;\ &quot;&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode=";;;&quot;[[]]&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode=";;;&quot;Enemy&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dotted">
+          <color auto="1"/>
+        </left>
+        <right style="dotted">
+          <color auto="1"/>
+        </right>
+        <top style="dotted">
+          <color auto="1"/>
+        </top>
+        <bottom style="dotted">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode=";;;&quot;^^^&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=";;;\ &quot;*/*&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=";;;\ &quot;Stair&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=";;;\ &quot;{     }&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF964B00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode=";;;\ &quot;{XX}&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF964B00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="173" formatCode=";;;\ &quot;NPC&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="174" formatCode=";;;\ &quot;_==_&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="175" formatCode=";;;\ &quot;Item&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode=";;;\ &quot;SPEC&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <numFmt numFmtId="177" formatCode=";;;\ &quot;TRIG&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode=";;;\ &quot;&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode=";;;&quot;[[]]&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode=";;;&quot;Enemy&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dotted">
+          <color auto="1"/>
+        </left>
+        <right style="dotted">
+          <color auto="1"/>
+        </right>
+        <top style="dotted">
+          <color auto="1"/>
+        </top>
+        <bottom style="dotted">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode=";;;&quot;^^^&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=";;;\ &quot;*/*&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=";;;\ &quot;Stair&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=";;;\ &quot;{     }&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF964B00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode=";;;\ &quot;{XX}&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF964B00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="173" formatCode=";;;\ &quot;NPC&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="174" formatCode=";;;\ &quot;_==_&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="175" formatCode=";;;\ &quot;Item&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="178" formatCode=";;;\ &quot;Spec&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <numFmt numFmtId="177" formatCode=";;;\ &quot;TRIG&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
         <vertical/>
         <horizontal/>
       </border>
@@ -1881,10 +2912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6807871-FC9A-4F10-876C-8CA0C6A51D84}">
-  <dimension ref="A1:AD32"/>
+  <dimension ref="A1:AD36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="AA12" sqref="AA12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1902,19 +2933,19 @@
     </row>
     <row r="2" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="B2" s="3"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L3" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>12</v>
@@ -1923,25 +2954,25 @@
         <v>12</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1955,7 +2986,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>12</v>
@@ -1964,10 +2995,10 @@
         <v>12</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="V4" s="1" t="s">
         <v>6</v>
@@ -1976,12 +3007,12 @@
         <v>6</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L5" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>3</v>
@@ -1990,10 +3021,10 @@
         <v>3</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="V5" s="1" t="s">
         <v>9</v>
@@ -2002,34 +3033,34 @@
         <v>9</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="13"/>
       <c r="D6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>15</v>
@@ -2044,7 +3075,7 @@
         <v>15</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AD6" s="1" t="s">
         <v>0</v>
@@ -2052,7 +3083,7 @@
     </row>
     <row r="7" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L7" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>3</v>
@@ -2061,52 +3092,52 @@
         <v>3</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="14"/>
       <c r="D8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M9" s="12"/>
       <c r="T9" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="V9" s="1" t="s">
         <v>3</v>
@@ -2115,10 +3146,10 @@
         <v>3</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2135,15 +3166,15 @@
         <v>3</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="T11" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="V11" s="1" t="s">
         <v>6</v>
@@ -2152,10 +3183,13 @@
         <v>6</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="Z11" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2172,16 +3206,16 @@
         <v>6</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="V12" s="1" t="s">
         <v>6</v>
@@ -2195,25 +3229,31 @@
       <c r="Z12" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="AA12" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M13" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="Z13" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2230,45 +3270,45 @@
         <v>9</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M15" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2285,7 +3325,7 @@
         <v>13</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>19</v>
@@ -2296,19 +3336,19 @@
     </row>
     <row r="17" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M17" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2397,81 +3437,112 @@
     </row>
     <row r="30" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>46</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B34" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:ZZ1048576">
-    <cfRule type="containsText" dxfId="61" priority="1" operator="containsText" text="f1">
+    <cfRule type="containsText" dxfId="52" priority="8" operator="containsText" text="w">
+      <formula>NOT(ISERROR(SEARCH("w",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="51" priority="2" operator="containsText" text="f1">
       <formula>NOT(ISERROR(SEARCH("f1",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="2" operator="containsText" text="f2">
+    <cfRule type="containsText" dxfId="50" priority="3" operator="containsText" text="f2">
       <formula>NOT(ISERROR(SEARCH("f2",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="4" operator="containsText" text="tr">
+    <cfRule type="containsText" dxfId="49" priority="4" operator="containsText" text="tr">
       <formula>NOT(ISERROR(SEARCH("tr",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="5" operator="containsText" text="sp">
+    <cfRule type="containsText" dxfId="48" priority="6" operator="containsText" text="sp">
       <formula>NOT(ISERROR(SEARCH("sp",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="6" operator="containsText" text="i">
+    <cfRule type="containsText" dxfId="47" priority="7" operator="containsText" text="i">
       <formula>NOT(ISERROR(SEARCH("i",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="18" operator="containsText" text="b">
+    <cfRule type="containsText" dxfId="46" priority="20" operator="containsText" text="b">
       <formula>NOT(ISERROR(SEARCH("b",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="19" operator="containsText" text="n">
+    <cfRule type="containsText" dxfId="45" priority="21" operator="containsText" text="n">
       <formula>NOT(ISERROR(SEARCH("n",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="20" operator="containsText" text="l">
+    <cfRule type="containsText" dxfId="44" priority="22" operator="containsText" text="l">
       <formula>NOT(ISERROR(SEARCH("l",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="21" operator="containsText" text="d">
+    <cfRule type="containsText" dxfId="43" priority="23" operator="containsText" text="d">
       <formula>NOT(ISERROR(SEARCH("d",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="22" operator="containsText" text="s">
+    <cfRule type="containsText" dxfId="42" priority="24" operator="containsText" text="s">
       <formula>NOT(ISERROR(SEARCH("s",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="23" operator="containsText" text="o">
+    <cfRule type="containsText" dxfId="41" priority="25" operator="containsText" text="o">
       <formula>NOT(ISERROR(SEARCH("o",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="24" operator="containsText" text="t">
+    <cfRule type="containsText" dxfId="40" priority="26" operator="containsText" text="t">
       <formula>NOT(ISERROR(SEARCH("t",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="25" operator="containsText" text="e">
+    <cfRule type="containsText" dxfId="39" priority="27" operator="containsText" text="e">
       <formula>NOT(ISERROR(SEARCH("e",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="26" operator="containsText" text="p">
+    <cfRule type="containsText" dxfId="38" priority="28" operator="containsText" text="p">
       <formula>NOT(ISERROR(SEARCH("p",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="27" operator="containsText" text="f">
+    <cfRule type="containsText" dxfId="37" priority="29" operator="containsText" text="f">
       <formula>NOT(ISERROR(SEARCH("f",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="28" operator="containsText" text="w">
-      <formula>NOT(ISERROR(SEARCH("w",F1)))</formula>
+    <cfRule type="containsText" dxfId="36" priority="30" operator="containsText" text="x">
+      <formula>NOT(ISERROR(SEARCH("x",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="35" priority="1" operator="containsText" text="&quot;">
+      <formula>NOT(ISERROR(SEARCH("""",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2483,7 +3554,7 @@
   <dimension ref="A1:AD32"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2600,14 +3671,14 @@
     </row>
     <row r="6" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="13"/>
       <c r="D6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>0</v>
@@ -2641,14 +3712,14 @@
     </row>
     <row r="8" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="14"/>
       <c r="D8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>0</v>
@@ -2976,46 +4047,46 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:ZZ1048576">
-    <cfRule type="containsText" dxfId="45" priority="1" operator="containsText" text="tr">
+    <cfRule type="containsText" dxfId="117" priority="1" operator="containsText" text="tr">
       <formula>NOT(ISERROR(SEARCH("tr",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="2" operator="containsText" text="sp">
+    <cfRule type="containsText" dxfId="116" priority="2" operator="containsText" text="sp">
       <formula>NOT(ISERROR(SEARCH("sp",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="3" operator="containsText" text="i">
+    <cfRule type="containsText" dxfId="115" priority="3" operator="containsText" text="i">
       <formula>NOT(ISERROR(SEARCH("i",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="4" operator="containsText" text="b">
+    <cfRule type="containsText" dxfId="114" priority="4" operator="containsText" text="b">
       <formula>NOT(ISERROR(SEARCH("b",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="5" operator="containsText" text="n">
+    <cfRule type="containsText" dxfId="113" priority="5" operator="containsText" text="n">
       <formula>NOT(ISERROR(SEARCH("n",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="6" operator="containsText" text="l">
+    <cfRule type="containsText" dxfId="112" priority="6" operator="containsText" text="l">
       <formula>NOT(ISERROR(SEARCH("l",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="7" operator="containsText" text="d">
+    <cfRule type="containsText" dxfId="111" priority="7" operator="containsText" text="d">
       <formula>NOT(ISERROR(SEARCH("d",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="8" operator="containsText" text="s">
+    <cfRule type="containsText" dxfId="110" priority="8" operator="containsText" text="s">
       <formula>NOT(ISERROR(SEARCH("s",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="9" operator="containsText" text="o">
+    <cfRule type="containsText" dxfId="109" priority="9" operator="containsText" text="o">
       <formula>NOT(ISERROR(SEARCH("o",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="10" operator="containsText" text="t">
+    <cfRule type="containsText" dxfId="108" priority="10" operator="containsText" text="t">
       <formula>NOT(ISERROR(SEARCH("t",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="11" operator="containsText" text="e">
+    <cfRule type="containsText" dxfId="107" priority="11" operator="containsText" text="e">
       <formula>NOT(ISERROR(SEARCH("e",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="12" operator="containsText" text="p">
+    <cfRule type="containsText" dxfId="106" priority="12" operator="containsText" text="p">
       <formula>NOT(ISERROR(SEARCH("p",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="13" operator="containsText" text="f">
+    <cfRule type="containsText" dxfId="105" priority="13" operator="containsText" text="f">
       <formula>NOT(ISERROR(SEARCH("f",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="14" operator="containsText" text="w">
+    <cfRule type="containsText" dxfId="104" priority="14" operator="containsText" text="w">
       <formula>NOT(ISERROR(SEARCH("w",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3145,11 +4216,11 @@
     </row>
     <row r="6" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="13"/>
       <c r="D6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>3</v>
@@ -3186,11 +4257,11 @@
     </row>
     <row r="8" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="14"/>
       <c r="D8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>6</v>
@@ -3521,52 +4592,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:ZZ1048576">
-    <cfRule type="containsText" dxfId="31" priority="1" operator="containsText" text="f1">
+    <cfRule type="containsText" dxfId="103" priority="1" operator="containsText" text="f1">
       <formula>NOT(ISERROR(SEARCH("f1",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="2" operator="containsText" text="f2">
+    <cfRule type="containsText" dxfId="102" priority="2" operator="containsText" text="f2">
       <formula>NOT(ISERROR(SEARCH("f2",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="3" operator="containsText" text="tr">
+    <cfRule type="containsText" dxfId="101" priority="3" operator="containsText" text="tr">
       <formula>NOT(ISERROR(SEARCH("tr",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="4" operator="containsText" text="sp">
+    <cfRule type="containsText" dxfId="100" priority="4" operator="containsText" text="sp">
       <formula>NOT(ISERROR(SEARCH("sp",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="5" operator="containsText" text="i">
+    <cfRule type="containsText" dxfId="99" priority="5" operator="containsText" text="i">
       <formula>NOT(ISERROR(SEARCH("i",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="6" operator="containsText" text="b">
+    <cfRule type="containsText" dxfId="98" priority="6" operator="containsText" text="b">
       <formula>NOT(ISERROR(SEARCH("b",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="7" operator="containsText" text="n">
+    <cfRule type="containsText" dxfId="97" priority="7" operator="containsText" text="n">
       <formula>NOT(ISERROR(SEARCH("n",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="8" operator="containsText" text="l">
+    <cfRule type="containsText" dxfId="96" priority="8" operator="containsText" text="l">
       <formula>NOT(ISERROR(SEARCH("l",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="9" operator="containsText" text="d">
+    <cfRule type="containsText" dxfId="95" priority="9" operator="containsText" text="d">
       <formula>NOT(ISERROR(SEARCH("d",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="10" operator="containsText" text="s">
+    <cfRule type="containsText" dxfId="94" priority="10" operator="containsText" text="s">
       <formula>NOT(ISERROR(SEARCH("s",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="11" operator="containsText" text="o">
+    <cfRule type="containsText" dxfId="93" priority="11" operator="containsText" text="o">
       <formula>NOT(ISERROR(SEARCH("o",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="12" operator="containsText" text="t">
+    <cfRule type="containsText" dxfId="92" priority="12" operator="containsText" text="t">
       <formula>NOT(ISERROR(SEARCH("t",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="13" operator="containsText" text="e">
+    <cfRule type="containsText" dxfId="91" priority="13" operator="containsText" text="e">
       <formula>NOT(ISERROR(SEARCH("e",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="14" operator="containsText" text="p">
+    <cfRule type="containsText" dxfId="90" priority="14" operator="containsText" text="p">
       <formula>NOT(ISERROR(SEARCH("p",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="f">
+    <cfRule type="containsText" dxfId="89" priority="15" operator="containsText" text="f">
       <formula>NOT(ISERROR(SEARCH("f",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="w">
+    <cfRule type="containsText" dxfId="88" priority="16" operator="containsText" text="w">
       <formula>NOT(ISERROR(SEARCH("w",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3576,10 +4647,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D649333-D32F-4043-A4F6-56DD9D642EED}">
-  <dimension ref="A1:AA32"/>
+  <dimension ref="A1:V43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA24" sqref="AA24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3590,24 +4661,24 @@
     <col min="6" max="16384" width="6.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="B2" s="3"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -3618,34 +4689,34 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="13"/>
       <c r="D6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="B8" s="14"/>
       <c r="D8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -3659,8 +4730,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -3674,7 +4745,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -3688,60 +4759,33 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K15" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -3755,69 +4799,57 @@
         <v>13</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -3831,78 +4863,57 @@
         <v>15</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K19" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="W19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="X19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA19" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -3916,81 +4927,63 @@
         <v>19</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="W20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="X20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA20" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I21" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="W21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="X21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA21" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -4012,79 +5005,58 @@
       <c r="K22" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="L22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="P22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="W22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="X22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA22" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I23" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="W23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="X23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA23" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -4098,87 +5070,57 @@
         <v>24</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="W24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="X24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA24" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K25" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>15</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="W25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="X25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA25" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -4192,42 +5134,57 @@
         <v>27</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>15</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
@@ -4241,187 +5198,493 @@
         <v>28</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N31" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="29" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="O31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B32" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="32" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="K32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B34" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="K34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="T35" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="T40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V41" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V42" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G43" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F1:ZZ1048576">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="f1">
+  <conditionalFormatting sqref="F1:ZZ28 F40:ZZ1048576 F29:I39 K29:ZZ39">
+    <cfRule type="containsText" dxfId="34" priority="7" operator="containsText" text="w">
+      <formula>NOT(ISERROR(SEARCH("w",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="2" operator="containsText" text="f1">
       <formula>NOT(ISERROR(SEARCH("f1",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="f2">
+    <cfRule type="containsText" dxfId="32" priority="3" operator="containsText" text="f2">
       <formula>NOT(ISERROR(SEARCH("f2",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="tr">
+    <cfRule type="containsText" dxfId="31" priority="4" operator="containsText" text="tr">
       <formula>NOT(ISERROR(SEARCH("tr",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="sp">
+    <cfRule type="containsText" dxfId="30" priority="5" operator="containsText" text="sp">
       <formula>NOT(ISERROR(SEARCH("sp",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="i">
+    <cfRule type="containsText" dxfId="29" priority="6" operator="containsText" text="i">
       <formula>NOT(ISERROR(SEARCH("i",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="b">
+    <cfRule type="containsText" dxfId="28" priority="8" operator="containsText" text="b">
       <formula>NOT(ISERROR(SEARCH("b",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="n">
+    <cfRule type="containsText" dxfId="27" priority="9" operator="containsText" text="n">
       <formula>NOT(ISERROR(SEARCH("n",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="l">
+    <cfRule type="containsText" dxfId="26" priority="10" operator="containsText" text="l">
       <formula>NOT(ISERROR(SEARCH("l",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="d">
+    <cfRule type="containsText" dxfId="25" priority="11" operator="containsText" text="d">
       <formula>NOT(ISERROR(SEARCH("d",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="10" operator="containsText" text="s">
+    <cfRule type="containsText" dxfId="24" priority="12" operator="containsText" text="s">
       <formula>NOT(ISERROR(SEARCH("s",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="o">
+    <cfRule type="containsText" dxfId="23" priority="13" operator="containsText" text="o">
       <formula>NOT(ISERROR(SEARCH("o",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="12" operator="containsText" text="t">
+    <cfRule type="containsText" dxfId="22" priority="14" operator="containsText" text="t">
       <formula>NOT(ISERROR(SEARCH("t",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="13" operator="containsText" text="e">
+    <cfRule type="containsText" dxfId="21" priority="15" operator="containsText" text="e">
       <formula>NOT(ISERROR(SEARCH("e",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="14" operator="containsText" text="p">
+    <cfRule type="containsText" dxfId="20" priority="16" operator="containsText" text="p">
       <formula>NOT(ISERROR(SEARCH("p",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="15" operator="containsText" text="f">
+    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="f">
       <formula>NOT(ISERROR(SEARCH("f",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="16" operator="containsText" text="w">
-      <formula>NOT(ISERROR(SEARCH("w",F1)))</formula>
+    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="x">
+      <formula>NOT(ISERROR(SEARCH("x",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="&quot;">
+      <formula>NOT(ISERROR(SEARCH("""",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Level Design/Level_Design_Book.xlsx
+++ b/Level Design/Level_Design_Book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Andre\GitHub\DungeonGoop\Level Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC60F111-9DF1-410A-8FD5-8C85AF37D2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3B0883-E4FB-477A-B089-DB9595725C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29295" yWindow="1500" windowWidth="27390" windowHeight="13395" activeTab="3" xr2:uid="{CA1DF132-283B-4423-BE0F-36DBE9B529A1}"/>
+    <workbookView xWindow="28860" yWindow="180" windowWidth="12225" windowHeight="15120" activeTab="3" xr2:uid="{CA1DF132-283B-4423-BE0F-36DBE9B529A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Legend" sheetId="1" r:id="rId1"/>
@@ -460,7 +460,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="118">
+  <dxfs count="66">
     <dxf>
       <numFmt numFmtId="164" formatCode=";;;\ &quot;&quot;"/>
       <fill>
@@ -650,6 +650,25 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <numFmt numFmtId="178" formatCode=";;;\ &quot;~~~&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="175" formatCode=";;;\ &quot;Item&quot;"/>
       <fill>
         <patternFill>
@@ -749,13 +768,22 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <numFmt numFmtId="179" formatCode=";;;\ &quot;~~~&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
+      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode=";;;\ &quot;&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
       <border>
@@ -770,20 +798,20 @@
     <dxf>
       <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
       <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode=";;;\ &quot;&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode=";;;&quot;[[]]&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
       <border>
@@ -796,22 +824,34 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode=";;;&quot;[[]]&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
+      <numFmt numFmtId="167" formatCode=";;;&quot;Enemy&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dotted">
+          <color auto="1"/>
+        </left>
+        <right style="dotted">
+          <color auto="1"/>
+        </right>
+        <top style="dotted">
+          <color auto="1"/>
+        </top>
+        <bottom style="dotted">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode=";;;&quot;^^^&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
       <border>
@@ -824,34 +864,10 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode=";;;&quot;Enemy&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dotted">
-          <color auto="1"/>
-        </left>
-        <right style="dotted">
-          <color auto="1"/>
-        </right>
-        <top style="dotted">
-          <color auto="1"/>
-        </top>
-        <bottom style="dotted">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode=";;;&quot;^^^&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
+      <numFmt numFmtId="169" formatCode=";;;\ &quot;*/*&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
       <border>
@@ -864,10 +880,34 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode=";;;\ &quot;*/*&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
+      <numFmt numFmtId="170" formatCode=";;;\ &quot;Stair&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=";;;\ &quot;{     }&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF964B00"/>
         </patternFill>
       </fill>
       <border>
@@ -880,31 +920,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="170" formatCode=";;;\ &quot;Stair&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDot">
-          <color auto="1"/>
-        </left>
-        <right style="dashDot">
-          <color auto="1"/>
-        </right>
-        <top style="dashDot">
-          <color auto="1"/>
-        </top>
-        <bottom style="dashDot">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=";;;\ &quot;{     }&quot;"/>
+      <numFmt numFmtId="172" formatCode=";;;\ &quot;{XX}&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF964B00"/>
@@ -920,10 +936,10 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="172" formatCode=";;;\ &quot;{XX}&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF964B00"/>
+      <numFmt numFmtId="173" formatCode=";;;\ &quot;NPC&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
       <border>
@@ -936,7 +952,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="173" formatCode=";;;\ &quot;NPC&quot;"/>
+      <numFmt numFmtId="174" formatCode=";;;\ &quot;_==_&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
@@ -952,10 +968,109 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="174" formatCode=";;;\ &quot;_==_&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
+      <numFmt numFmtId="175" formatCode=";;;\ &quot;Item&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode=";;;\ &quot;SPEC&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <numFmt numFmtId="177" formatCode=";;;\ &quot;TRIG&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode=";;;\ &quot;&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
       <border>
@@ -968,10 +1083,94 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="175" formatCode=";;;\ &quot;Item&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
+      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode=";;;&quot;[[]]&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode=";;;&quot;Enemy&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dotted">
+          <color auto="1"/>
+        </left>
+        <right style="dotted">
+          <color auto="1"/>
+        </right>
+        <top style="dotted">
+          <color auto="1"/>
+        </top>
+        <bottom style="dotted">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode=";;;&quot;^^^&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=";;;\ &quot;*/*&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=";;;\ &quot;Stair&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
       <border>
@@ -992,7 +1191,95 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode=";;;\ &quot;SPEC&quot;"/>
+      <numFmt numFmtId="171" formatCode=";;;\ &quot;{     }&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF964B00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode=";;;\ &quot;{XX}&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF964B00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="173" formatCode=";;;\ &quot;NPC&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="174" formatCode=";;;\ &quot;_==_&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="175" formatCode=";;;\ &quot;Item&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="179" formatCode=";;;\ &quot;Spec&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF7030A0"/>
@@ -1043,37 +1330,10 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <numFmt numFmtId="179" formatCode=";;;\ &quot;~~~&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
+      <numFmt numFmtId="164" formatCode=";;;\ &quot;&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
       <border>
@@ -1086,22 +1346,22 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode=";;;\ &quot;&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
+      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode=";;;&quot;[[]]&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
       <border>
@@ -1114,22 +1374,34 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode=";;;&quot;[[]]&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
+      <numFmt numFmtId="167" formatCode=";;;&quot;Enemy&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dotted">
+          <color auto="1"/>
+        </left>
+        <right style="dotted">
+          <color auto="1"/>
+        </right>
+        <top style="dotted">
+          <color auto="1"/>
+        </top>
+        <bottom style="dotted">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode=";;;&quot;^^^&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
       <border>
@@ -1142,34 +1414,10 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode=";;;&quot;Enemy&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dotted">
-          <color auto="1"/>
-        </left>
-        <right style="dotted">
-          <color auto="1"/>
-        </right>
-        <top style="dotted">
-          <color auto="1"/>
-        </top>
-        <bottom style="dotted">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode=";;;&quot;^^^&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
+      <numFmt numFmtId="169" formatCode=";;;\ &quot;*/*&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
       <border>
@@ -1182,10 +1430,34 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode=";;;\ &quot;*/*&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
+      <numFmt numFmtId="170" formatCode=";;;\ &quot;Stair&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=";;;\ &quot;{     }&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF964B00"/>
         </patternFill>
       </fill>
       <border>
@@ -1198,31 +1470,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="170" formatCode=";;;\ &quot;Stair&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDot">
-          <color auto="1"/>
-        </left>
-        <right style="dashDot">
-          <color auto="1"/>
-        </right>
-        <top style="dashDot">
-          <color auto="1"/>
-        </top>
-        <bottom style="dashDot">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=";;;\ &quot;{     }&quot;"/>
+      <numFmt numFmtId="172" formatCode=";;;\ &quot;{XX}&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF964B00"/>
@@ -1238,10 +1486,10 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="172" formatCode=";;;\ &quot;{XX}&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF964B00"/>
+      <numFmt numFmtId="173" formatCode=";;;\ &quot;NPC&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
       <border>
@@ -1254,7 +1502,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="173" formatCode=";;;\ &quot;NPC&quot;"/>
+      <numFmt numFmtId="174" formatCode=";;;\ &quot;_==_&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
@@ -1270,10 +1518,13 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="174" formatCode=";;;\ &quot;_==_&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
+      <font>
+        <color theme="0"/>
+      </font>
+      <numFmt numFmtId="178" formatCode=";;;\ &quot;~~~&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
       <border>
@@ -1385,1194 +1636,13 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <numFmt numFmtId="179" formatCode=";;;\ &quot;~~~&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
         </patternFill>
       </fill>
       <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode=";;;\ &quot;&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode=";;;&quot;[[]]&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode=";;;&quot;Enemy&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dotted">
-          <color auto="1"/>
-        </left>
-        <right style="dotted">
-          <color auto="1"/>
-        </right>
-        <top style="dotted">
-          <color auto="1"/>
-        </top>
-        <bottom style="dotted">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode=";;;&quot;^^^&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=";;;\ &quot;*/*&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=";;;\ &quot;Stair&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDot">
-          <color auto="1"/>
-        </left>
-        <right style="dashDot">
-          <color auto="1"/>
-        </right>
-        <top style="dashDot">
-          <color auto="1"/>
-        </top>
-        <bottom style="dashDot">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=";;;\ &quot;{     }&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF964B00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="172" formatCode=";;;\ &quot;{XX}&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF964B00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="173" formatCode=";;;\ &quot;NPC&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="174" formatCode=";;;\ &quot;_==_&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="175" formatCode=";;;\ &quot;Item&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDot">
-          <color auto="1"/>
-        </left>
-        <right style="dashDot">
-          <color auto="1"/>
-        </right>
-        <top style="dashDot">
-          <color auto="1"/>
-        </top>
-        <bottom style="dashDot">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode=";;;\ &quot;SPEC&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDot">
-          <color auto="1"/>
-        </left>
-        <right style="dashDot">
-          <color auto="1"/>
-        </right>
-        <top style="dashDot">
-          <color auto="1"/>
-        </top>
-        <bottom style="dashDot">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <numFmt numFmtId="177" formatCode=";;;\ &quot;TRIG&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDot">
-          <color auto="1"/>
-        </left>
-        <right style="dashDot">
-          <color auto="1"/>
-        </right>
-        <top style="dashDot">
-          <color auto="1"/>
-        </top>
-        <bottom style="dashDot">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <numFmt numFmtId="179" formatCode=";;;\ &quot;~~~&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode=";;;\ &quot;&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode=";;;&quot;[[]]&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode=";;;&quot;Enemy&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dotted">
-          <color auto="1"/>
-        </left>
-        <right style="dotted">
-          <color auto="1"/>
-        </right>
-        <top style="dotted">
-          <color auto="1"/>
-        </top>
-        <bottom style="dotted">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode=";;;&quot;^^^&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=";;;\ &quot;*/*&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=";;;\ &quot;Stair&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDot">
-          <color auto="1"/>
-        </left>
-        <right style="dashDot">
-          <color auto="1"/>
-        </right>
-        <top style="dashDot">
-          <color auto="1"/>
-        </top>
-        <bottom style="dashDot">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=";;;\ &quot;{     }&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF964B00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="172" formatCode=";;;\ &quot;{XX}&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF964B00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="173" formatCode=";;;\ &quot;NPC&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="174" formatCode=";;;\ &quot;_==_&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="175" formatCode=";;;\ &quot;Item&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDot">
-          <color auto="1"/>
-        </left>
-        <right style="dashDot">
-          <color auto="1"/>
-        </right>
-        <top style="dashDot">
-          <color auto="1"/>
-        </top>
-        <bottom style="dashDot">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode=";;;\ &quot;SPEC&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDot">
-          <color auto="1"/>
-        </left>
-        <right style="dashDot">
-          <color auto="1"/>
-        </right>
-        <top style="dashDot">
-          <color auto="1"/>
-        </top>
-        <bottom style="dashDot">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <numFmt numFmtId="177" formatCode=";;;\ &quot;TRIG&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDot">
-          <color auto="1"/>
-        </left>
-        <right style="dashDot">
-          <color auto="1"/>
-        </right>
-        <top style="dashDot">
-          <color auto="1"/>
-        </top>
-        <bottom style="dashDot">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <numFmt numFmtId="179" formatCode=";;;\ &quot;~~~&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode=";;;\ &quot;&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode=";;;&quot;[[]]&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode=";;;&quot;Enemy&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dotted">
-          <color auto="1"/>
-        </left>
-        <right style="dotted">
-          <color auto="1"/>
-        </right>
-        <top style="dotted">
-          <color auto="1"/>
-        </top>
-        <bottom style="dotted">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode=";;;&quot;^^^&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=";;;\ &quot;*/*&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=";;;\ &quot;Stair&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDot">
-          <color auto="1"/>
-        </left>
-        <right style="dashDot">
-          <color auto="1"/>
-        </right>
-        <top style="dashDot">
-          <color auto="1"/>
-        </top>
-        <bottom style="dashDot">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=";;;\ &quot;{     }&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF964B00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="172" formatCode=";;;\ &quot;{XX}&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF964B00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="173" formatCode=";;;\ &quot;NPC&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="174" formatCode=";;;\ &quot;_==_&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="175" formatCode=";;;\ &quot;Item&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDot">
-          <color auto="1"/>
-        </left>
-        <right style="dashDot">
-          <color auto="1"/>
-        </right>
-        <top style="dashDot">
-          <color auto="1"/>
-        </top>
-        <bottom style="dashDot">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode=";;;\ &quot;SPEC&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDot">
-          <color auto="1"/>
-        </left>
-        <right style="dashDot">
-          <color auto="1"/>
-        </right>
-        <top style="dashDot">
-          <color auto="1"/>
-        </top>
-        <bottom style="dashDot">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <numFmt numFmtId="177" formatCode=";;;\ &quot;TRIG&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDot">
-          <color auto="1"/>
-        </left>
-        <right style="dashDot">
-          <color auto="1"/>
-        </right>
-        <top style="dashDot">
-          <color auto="1"/>
-        </top>
-        <bottom style="dashDot">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode=";;;\ &quot;&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode=";;;&quot;[[]]&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode=";;;&quot;Enemy&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dotted">
-          <color auto="1"/>
-        </left>
-        <right style="dotted">
-          <color auto="1"/>
-        </right>
-        <top style="dotted">
-          <color auto="1"/>
-        </top>
-        <bottom style="dotted">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode=";;;&quot;^^^&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=";;;\ &quot;*/*&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=";;;\ &quot;Stair&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDot">
-          <color auto="1"/>
-        </left>
-        <right style="dashDot">
-          <color auto="1"/>
-        </right>
-        <top style="dashDot">
-          <color auto="1"/>
-        </top>
-        <bottom style="dashDot">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=";;;\ &quot;{     }&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF964B00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="172" formatCode=";;;\ &quot;{XX}&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF964B00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="173" formatCode=";;;\ &quot;NPC&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="174" formatCode=";;;\ &quot;_==_&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="175" formatCode=";;;\ &quot;Item&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDot">
-          <color auto="1"/>
-        </left>
-        <right style="dashDot">
-          <color auto="1"/>
-        </right>
-        <top style="dashDot">
-          <color auto="1"/>
-        </top>
-        <bottom style="dashDot">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="178" formatCode=";;;\ &quot;Spec&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDot">
-          <color auto="1"/>
-        </left>
-        <right style="dashDot">
-          <color auto="1"/>
-        </right>
-        <top style="dashDot">
-          <color auto="1"/>
-        </top>
-        <bottom style="dashDot">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <numFmt numFmtId="177" formatCode=";;;\ &quot;TRIG&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDot">
-          <color auto="1"/>
-        </left>
-        <right style="dashDot">
-          <color auto="1"/>
-        </right>
-        <top style="dashDot">
-          <color auto="1"/>
-        </top>
-        <bottom style="dashDot">
-          <color auto="1"/>
-        </bottom>
         <vertical/>
         <horizontal/>
       </border>
@@ -3490,59 +2560,59 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:ZZ1048576">
-    <cfRule type="containsText" dxfId="52" priority="8" operator="containsText" text="w">
+    <cfRule type="containsText" dxfId="65" priority="1" operator="containsText" text="&quot;">
+      <formula>NOT(ISERROR(SEARCH("""",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="64" priority="2" operator="containsText" text="f1">
+      <formula>NOT(ISERROR(SEARCH("f1",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="63" priority="3" operator="containsText" text="f2">
+      <formula>NOT(ISERROR(SEARCH("f2",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="62" priority="4" operator="containsText" text="tr">
+      <formula>NOT(ISERROR(SEARCH("tr",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="61" priority="6" operator="containsText" text="sp">
+      <formula>NOT(ISERROR(SEARCH("sp",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="60" priority="7" operator="containsText" text="i">
+      <formula>NOT(ISERROR(SEARCH("i",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="59" priority="8" operator="containsText" text="w">
       <formula>NOT(ISERROR(SEARCH("w",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="2" operator="containsText" text="f1">
-      <formula>NOT(ISERROR(SEARCH("f1",F1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="3" operator="containsText" text="f2">
-      <formula>NOT(ISERROR(SEARCH("f2",F1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="4" operator="containsText" text="tr">
-      <formula>NOT(ISERROR(SEARCH("tr",F1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="6" operator="containsText" text="sp">
-      <formula>NOT(ISERROR(SEARCH("sp",F1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="7" operator="containsText" text="i">
-      <formula>NOT(ISERROR(SEARCH("i",F1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="20" operator="containsText" text="b">
+    <cfRule type="containsText" dxfId="58" priority="20" operator="containsText" text="b">
       <formula>NOT(ISERROR(SEARCH("b",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="21" operator="containsText" text="n">
+    <cfRule type="containsText" dxfId="57" priority="21" operator="containsText" text="n">
       <formula>NOT(ISERROR(SEARCH("n",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="22" operator="containsText" text="l">
+    <cfRule type="containsText" dxfId="56" priority="22" operator="containsText" text="l">
       <formula>NOT(ISERROR(SEARCH("l",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="23" operator="containsText" text="d">
+    <cfRule type="containsText" dxfId="55" priority="23" operator="containsText" text="d">
       <formula>NOT(ISERROR(SEARCH("d",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="24" operator="containsText" text="s">
+    <cfRule type="containsText" dxfId="54" priority="24" operator="containsText" text="s">
       <formula>NOT(ISERROR(SEARCH("s",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="25" operator="containsText" text="o">
+    <cfRule type="containsText" dxfId="53" priority="25" operator="containsText" text="o">
       <formula>NOT(ISERROR(SEARCH("o",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="26" operator="containsText" text="t">
+    <cfRule type="containsText" dxfId="52" priority="26" operator="containsText" text="t">
       <formula>NOT(ISERROR(SEARCH("t",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="27" operator="containsText" text="e">
+    <cfRule type="containsText" dxfId="51" priority="27" operator="containsText" text="e">
       <formula>NOT(ISERROR(SEARCH("e",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="28" operator="containsText" text="p">
+    <cfRule type="containsText" dxfId="50" priority="28" operator="containsText" text="p">
       <formula>NOT(ISERROR(SEARCH("p",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="29" operator="containsText" text="f">
+    <cfRule type="containsText" dxfId="49" priority="29" operator="containsText" text="f">
       <formula>NOT(ISERROR(SEARCH("f",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="30" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="48" priority="30" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",F1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="1" operator="containsText" text="&quot;">
-      <formula>NOT(ISERROR(SEARCH("""",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4047,46 +3117,46 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:ZZ1048576">
-    <cfRule type="containsText" dxfId="117" priority="1" operator="containsText" text="tr">
+    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="tr">
       <formula>NOT(ISERROR(SEARCH("tr",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="116" priority="2" operator="containsText" text="sp">
+    <cfRule type="containsText" dxfId="46" priority="2" operator="containsText" text="sp">
       <formula>NOT(ISERROR(SEARCH("sp",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="3" operator="containsText" text="i">
+    <cfRule type="containsText" dxfId="45" priority="3" operator="containsText" text="i">
       <formula>NOT(ISERROR(SEARCH("i",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="4" operator="containsText" text="b">
+    <cfRule type="containsText" dxfId="44" priority="4" operator="containsText" text="b">
       <formula>NOT(ISERROR(SEARCH("b",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="5" operator="containsText" text="n">
+    <cfRule type="containsText" dxfId="43" priority="5" operator="containsText" text="n">
       <formula>NOT(ISERROR(SEARCH("n",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="6" operator="containsText" text="l">
+    <cfRule type="containsText" dxfId="42" priority="6" operator="containsText" text="l">
       <formula>NOT(ISERROR(SEARCH("l",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="7" operator="containsText" text="d">
+    <cfRule type="containsText" dxfId="41" priority="7" operator="containsText" text="d">
       <formula>NOT(ISERROR(SEARCH("d",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="8" operator="containsText" text="s">
+    <cfRule type="containsText" dxfId="40" priority="8" operator="containsText" text="s">
       <formula>NOT(ISERROR(SEARCH("s",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="9" operator="containsText" text="o">
+    <cfRule type="containsText" dxfId="39" priority="9" operator="containsText" text="o">
       <formula>NOT(ISERROR(SEARCH("o",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="10" operator="containsText" text="t">
+    <cfRule type="containsText" dxfId="38" priority="10" operator="containsText" text="t">
       <formula>NOT(ISERROR(SEARCH("t",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="11" operator="containsText" text="e">
+    <cfRule type="containsText" dxfId="37" priority="11" operator="containsText" text="e">
       <formula>NOT(ISERROR(SEARCH("e",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="12" operator="containsText" text="p">
+    <cfRule type="containsText" dxfId="36" priority="12" operator="containsText" text="p">
       <formula>NOT(ISERROR(SEARCH("p",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="13" operator="containsText" text="f">
+    <cfRule type="containsText" dxfId="35" priority="13" operator="containsText" text="f">
       <formula>NOT(ISERROR(SEARCH("f",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="14" operator="containsText" text="w">
+    <cfRule type="containsText" dxfId="34" priority="14" operator="containsText" text="w">
       <formula>NOT(ISERROR(SEARCH("w",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4592,52 +3662,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:ZZ1048576">
-    <cfRule type="containsText" dxfId="103" priority="1" operator="containsText" text="f1">
+    <cfRule type="containsText" dxfId="33" priority="1" operator="containsText" text="f1">
       <formula>NOT(ISERROR(SEARCH("f1",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="2" operator="containsText" text="f2">
+    <cfRule type="containsText" dxfId="32" priority="2" operator="containsText" text="f2">
       <formula>NOT(ISERROR(SEARCH("f2",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="3" operator="containsText" text="tr">
+    <cfRule type="containsText" dxfId="31" priority="3" operator="containsText" text="tr">
       <formula>NOT(ISERROR(SEARCH("tr",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="4" operator="containsText" text="sp">
+    <cfRule type="containsText" dxfId="30" priority="4" operator="containsText" text="sp">
       <formula>NOT(ISERROR(SEARCH("sp",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="5" operator="containsText" text="i">
+    <cfRule type="containsText" dxfId="29" priority="5" operator="containsText" text="i">
       <formula>NOT(ISERROR(SEARCH("i",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="6" operator="containsText" text="b">
+    <cfRule type="containsText" dxfId="28" priority="6" operator="containsText" text="b">
       <formula>NOT(ISERROR(SEARCH("b",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="7" operator="containsText" text="n">
+    <cfRule type="containsText" dxfId="27" priority="7" operator="containsText" text="n">
       <formula>NOT(ISERROR(SEARCH("n",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="8" operator="containsText" text="l">
+    <cfRule type="containsText" dxfId="26" priority="8" operator="containsText" text="l">
       <formula>NOT(ISERROR(SEARCH("l",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="95" priority="9" operator="containsText" text="d">
+    <cfRule type="containsText" dxfId="25" priority="9" operator="containsText" text="d">
       <formula>NOT(ISERROR(SEARCH("d",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="10" operator="containsText" text="s">
+    <cfRule type="containsText" dxfId="24" priority="10" operator="containsText" text="s">
       <formula>NOT(ISERROR(SEARCH("s",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="11" operator="containsText" text="o">
+    <cfRule type="containsText" dxfId="23" priority="11" operator="containsText" text="o">
       <formula>NOT(ISERROR(SEARCH("o",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="12" operator="containsText" text="t">
+    <cfRule type="containsText" dxfId="22" priority="12" operator="containsText" text="t">
       <formula>NOT(ISERROR(SEARCH("t",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="13" operator="containsText" text="e">
+    <cfRule type="containsText" dxfId="21" priority="13" operator="containsText" text="e">
       <formula>NOT(ISERROR(SEARCH("e",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="14" operator="containsText" text="p">
+    <cfRule type="containsText" dxfId="20" priority="14" operator="containsText" text="p">
       <formula>NOT(ISERROR(SEARCH("p",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="15" operator="containsText" text="f">
+    <cfRule type="containsText" dxfId="19" priority="15" operator="containsText" text="f">
       <formula>NOT(ISERROR(SEARCH("f",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="16" operator="containsText" text="w">
+    <cfRule type="containsText" dxfId="18" priority="16" operator="containsText" text="w">
       <formula>NOT(ISERROR(SEARCH("w",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4649,7 +3719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D649333-D32F-4043-A4F6-56DD9D642EED}">
   <dimension ref="A1:V43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AA24" sqref="AA24"/>
     </sheetView>
   </sheetViews>
@@ -5631,60 +4701,60 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F1:ZZ28 F40:ZZ1048576 F29:I39 K29:ZZ39">
-    <cfRule type="containsText" dxfId="34" priority="7" operator="containsText" text="w">
-      <formula>NOT(ISERROR(SEARCH("w",F1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="2" operator="containsText" text="f1">
-      <formula>NOT(ISERROR(SEARCH("f1",F1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="3" operator="containsText" text="f2">
-      <formula>NOT(ISERROR(SEARCH("f2",F1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="4" operator="containsText" text="tr">
-      <formula>NOT(ISERROR(SEARCH("tr",F1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="5" operator="containsText" text="sp">
-      <formula>NOT(ISERROR(SEARCH("sp",F1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="6" operator="containsText" text="i">
-      <formula>NOT(ISERROR(SEARCH("i",F1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="8" operator="containsText" text="b">
-      <formula>NOT(ISERROR(SEARCH("b",F1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="9" operator="containsText" text="n">
-      <formula>NOT(ISERROR(SEARCH("n",F1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="10" operator="containsText" text="l">
-      <formula>NOT(ISERROR(SEARCH("l",F1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="11" operator="containsText" text="d">
-      <formula>NOT(ISERROR(SEARCH("d",F1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="12" operator="containsText" text="s">
-      <formula>NOT(ISERROR(SEARCH("s",F1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="13" operator="containsText" text="o">
-      <formula>NOT(ISERROR(SEARCH("o",F1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="14" operator="containsText" text="t">
-      <formula>NOT(ISERROR(SEARCH("t",F1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="15" operator="containsText" text="e">
-      <formula>NOT(ISERROR(SEARCH("e",F1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="16" operator="containsText" text="p">
-      <formula>NOT(ISERROR(SEARCH("p",F1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="f">
-      <formula>NOT(ISERROR(SEARCH("f",F1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="x">
-      <formula>NOT(ISERROR(SEARCH("x",F1)))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="F1:ZZ28 F29:I39 K29:ZZ39 F40:ZZ1048576">
     <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="&quot;">
       <formula>NOT(ISERROR(SEARCH("""",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="f1">
+      <formula>NOT(ISERROR(SEARCH("f1",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="f2">
+      <formula>NOT(ISERROR(SEARCH("f2",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="tr">
+      <formula>NOT(ISERROR(SEARCH("tr",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="sp">
+      <formula>NOT(ISERROR(SEARCH("sp",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="i">
+      <formula>NOT(ISERROR(SEARCH("i",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="w">
+      <formula>NOT(ISERROR(SEARCH("w",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="b">
+      <formula>NOT(ISERROR(SEARCH("b",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="n">
+      <formula>NOT(ISERROR(SEARCH("n",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="l">
+      <formula>NOT(ISERROR(SEARCH("l",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="d">
+      <formula>NOT(ISERROR(SEARCH("d",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="s">
+      <formula>NOT(ISERROR(SEARCH("s",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="o">
+      <formula>NOT(ISERROR(SEARCH("o",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="14" operator="containsText" text="t">
+      <formula>NOT(ISERROR(SEARCH("t",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="15" operator="containsText" text="e">
+      <formula>NOT(ISERROR(SEARCH("e",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="16" operator="containsText" text="p">
+      <formula>NOT(ISERROR(SEARCH("p",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="17" operator="containsText" text="f">
+      <formula>NOT(ISERROR(SEARCH("f",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="18" operator="containsText" text="x">
+      <formula>NOT(ISERROR(SEARCH("x",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Level Design/Level_Design_Book.xlsx
+++ b/Level Design/Level_Design_Book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Andre\GitHub\DungeonGoop\Level Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3B0883-E4FB-477A-B089-DB9595725C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D203B357-E14A-49B5-8730-D40AB2A61807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28860" yWindow="180" windowWidth="12225" windowHeight="15120" activeTab="3" xr2:uid="{CA1DF132-283B-4423-BE0F-36DBE9B529A1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{CA1DF132-283B-4423-BE0F-36DBE9B529A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Legend" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="56">
   <si>
     <t>w</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>"Test"</t>
+  </si>
+  <si>
+    <t>"Template"</t>
   </si>
 </sst>
 </file>
@@ -397,7 +400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -454,7 +457,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -653,7 +659,7 @@
       <font>
         <color theme="0"/>
       </font>
-      <numFmt numFmtId="178" formatCode=";;;\ &quot;~~~&quot;"/>
+      <numFmt numFmtId="175" formatCode=";;;\ &quot;~~~&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF0070C0"/>
@@ -669,7 +675,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="175" formatCode=";;;\ &quot;Item&quot;"/>
+      <numFmt numFmtId="176" formatCode=";;;\ &quot;Item&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
@@ -693,7 +699,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode=";;;\ &quot;SPEC&quot;"/>
+      <numFmt numFmtId="177" formatCode=";;;\ &quot;SPEC&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF7030A0"/>
@@ -720,7 +726,7 @@
       <font>
         <color theme="0"/>
       </font>
-      <numFmt numFmtId="177" formatCode=";;;\ &quot;TRIG&quot;"/>
+      <numFmt numFmtId="178" formatCode=";;;\ &quot;TRIG&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF002060"/>
@@ -768,7 +774,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode=";;;&quot;&quot;"/>
+      <numFmt numFmtId="180" formatCode=";&quot;&quot;;"/>
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
@@ -968,7 +974,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="175" formatCode=";;;\ &quot;Item&quot;"/>
+      <numFmt numFmtId="176" formatCode=";;;\ &quot;Item&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
@@ -992,7 +998,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode=";;;\ &quot;SPEC&quot;"/>
+      <numFmt numFmtId="177" formatCode=";;;\ &quot;SPEC&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF7030A0"/>
@@ -1019,7 +1025,7 @@
       <font>
         <color theme="0"/>
       </font>
-      <numFmt numFmtId="177" formatCode=";;;\ &quot;TRIG&quot;"/>
+      <numFmt numFmtId="178" formatCode=";;;\ &quot;TRIG&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF002060"/>
@@ -1255,7 +1261,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="175" formatCode=";;;\ &quot;Item&quot;"/>
+      <numFmt numFmtId="176" formatCode=";;;\ &quot;Item&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
@@ -1306,7 +1312,7 @@
       <font>
         <color theme="0"/>
       </font>
-      <numFmt numFmtId="177" formatCode=";;;\ &quot;TRIG&quot;"/>
+      <numFmt numFmtId="178" formatCode=";;;\ &quot;TRIG&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF002060"/>
@@ -1521,7 +1527,7 @@
       <font>
         <color theme="0"/>
       </font>
-      <numFmt numFmtId="178" formatCode=";;;\ &quot;~~~&quot;"/>
+      <numFmt numFmtId="175" formatCode=";;;\ &quot;~~~&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF0070C0"/>
@@ -1537,7 +1543,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="175" formatCode=";;;\ &quot;Item&quot;"/>
+      <numFmt numFmtId="176" formatCode=";;;\ &quot;Item&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
@@ -1561,7 +1567,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode=";;;\ &quot;SPEC&quot;"/>
+      <numFmt numFmtId="177" formatCode=";;;\ &quot;SPEC&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF7030A0"/>
@@ -1588,7 +1594,7 @@
       <font>
         <color theme="0"/>
       </font>
-      <numFmt numFmtId="177" formatCode=";;;\ &quot;TRIG&quot;"/>
+      <numFmt numFmtId="178" formatCode=";;;\ &quot;TRIG&quot;"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF002060"/>
@@ -3717,10 +3723,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D649333-D32F-4043-A4F6-56DD9D642EED}">
-  <dimension ref="A1:V43"/>
+  <dimension ref="A1:AK43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA24" sqref="AA24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AM21" sqref="AM21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3731,12 +3737,12 @@
     <col min="6" max="16384" width="6.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -3748,7 +3754,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -3759,7 +3765,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>41</v>
       </c>
@@ -3771,7 +3777,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
@@ -3783,10 +3789,10 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:37" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:18" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -3800,8 +3806,39 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="AB11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK11" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -3814,8 +3851,73 @@
       <c r="G12" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK12" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M13" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK13" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -3828,8 +3930,38 @@
       <c r="G14" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK14" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K15" s="1" t="s">
         <v>48</v>
       </c>
@@ -3854,8 +3986,38 @@
       <c r="R15" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK15" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -3892,8 +4054,38 @@
       <c r="R16" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK16" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K17" s="1" t="s">
         <v>48</v>
       </c>
@@ -3918,8 +4110,38 @@
       <c r="R17" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK17" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -3956,8 +4178,38 @@
       <c r="R18" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK18" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K19" s="1" t="s">
         <v>48</v>
       </c>
@@ -3982,8 +4234,26 @@
       <c r="R19" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK19" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -4020,8 +4290,26 @@
       <c r="R20" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK20" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I21" s="1" t="s">
         <v>48</v>
       </c>
@@ -4052,8 +4340,32 @@
       <c r="R21" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK21" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -4096,8 +4408,26 @@
       <c r="R22" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK22" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I23" s="1" t="s">
         <v>48</v>
       </c>
@@ -4125,8 +4455,26 @@
       <c r="R23" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK23" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -4163,8 +4511,38 @@
       <c r="R24" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK24" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K25" s="1" t="s">
         <v>48</v>
       </c>
@@ -4189,8 +4567,38 @@
       <c r="R25" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK25" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -4227,8 +4635,38 @@
       <c r="R26" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK26" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K27" s="1" t="s">
         <v>48</v>
       </c>
@@ -4253,8 +4691,38 @@
       <c r="R27" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK27" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
@@ -4291,8 +4759,38 @@
       <c r="R28" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK28" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K29" s="1" t="s">
         <v>48</v>
       </c>
@@ -4317,8 +4815,38 @@
       <c r="R29" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK29" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -4355,8 +4883,38 @@
       <c r="R30" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK30" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K31" s="1" t="s">
         <v>48</v>
       </c>
@@ -4381,8 +4939,38 @@
       <c r="R31" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK31" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
@@ -4419,8 +5007,38 @@
       <c r="R32" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="33" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK32" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K33" s="1" t="s">
         <v>48</v>
       </c>
@@ -4445,8 +5063,38 @@
       <c r="R33" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="34" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK33" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
@@ -4483,8 +5131,38 @@
       <c r="R34" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="35" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK34" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K35" s="1" t="s">
         <v>48</v>
       </c>
@@ -4512,8 +5190,38 @@
       <c r="T35" s="19" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="36" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK35" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>51</v>
       </c>
@@ -4550,8 +5258,14 @@
       <c r="R36" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="37" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF36" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K37" s="1" t="s">
         <v>48</v>
       </c>
@@ -4577,7 +5291,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K38" s="1" t="s">
         <v>48</v>
       </c>
@@ -4602,8 +5316,14 @@
       <c r="R38" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="39" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF38" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K39" s="1" t="s">
         <v>48</v>
       </c>
@@ -4628,8 +5348,11 @@
       <c r="R39" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="40" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G40" s="1" t="s">
         <v>48</v>
       </c>
@@ -4679,7 +5402,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G41" s="1" t="s">
         <v>48</v>
       </c>
@@ -4687,7 +5410,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G42" s="1" t="s">
         <v>48</v>
       </c>
@@ -4695,13 +5418,13 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G43" s="1" t="s">
         <v>48</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F1:ZZ28 F29:I39 K29:ZZ39 F40:ZZ1048576">
+  <conditionalFormatting sqref="F29:I39 F40:ZZ1048576 F1:ZZ11 K29:AJ30 AK12:ZZ30 F12:AJ28 K31:ZZ39">
     <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="&quot;">
       <formula>NOT(ISERROR(SEARCH("""",F1)))</formula>
     </cfRule>
